--- a/resources/avia.xlsx
+++ b/resources/avia.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10410"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rotemwald/PycharmProjects/FinalProject/resources/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A42801A-2227-4C4E-91E5-7A3D49A62B03}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="20730" windowHeight="11760"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Room_93 (1)" sheetId="1" r:id="rId1"/>
@@ -25,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1625" uniqueCount="717">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1625" uniqueCount="718">
   <si>
     <t xml:space="preserve">TimeStamp </t>
   </si>
@@ -2176,13 +2182,16 @@
   </si>
   <si>
     <t>Output</t>
+  </si>
+  <si>
+    <t>MAT</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="26">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2784,9 +2793,6 @@
     <cellStyle name="60% - הדגשה4" xfId="33" builtinId="44" customBuiltin="1"/>
     <cellStyle name="60% - הדגשה5" xfId="37" builtinId="48" customBuiltin="1"/>
     <cellStyle name="60% - הדגשה6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="43" builtinId="9" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="42" builtinId="8" hidden="1"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="הדגשה1" xfId="18" builtinId="29" customBuiltin="1"/>
     <cellStyle name="הדגשה2" xfId="22" builtinId="33" customBuiltin="1"/>
     <cellStyle name="הדגשה3" xfId="26" builtinId="37" customBuiltin="1"/>
@@ -2810,6 +2816,9 @@
     <cellStyle name="רע" xfId="7" builtinId="27" customBuiltin="1"/>
     <cellStyle name="תא מסומן" xfId="13" builtinId="23" customBuiltin="1"/>
     <cellStyle name="תא מקושר" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="43" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="42" builtinId="8" hidden="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -3079,36 +3088,36 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr filterMode="1"/>
   <dimension ref="A1:BY648"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="160" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="D1" sqref="A1:BY648"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="7.125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="11.875" style="5" customWidth="1"/>
-    <col min="3" max="3" width="133.875" style="5" customWidth="1"/>
+    <col min="1" max="1" width="7.1640625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="11.83203125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="133.83203125" style="5" customWidth="1"/>
     <col min="4" max="4" width="5.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="4.125" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.125" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="11" width="4.125" style="12" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5.625" style="12" customWidth="1"/>
-    <col min="13" max="77" width="9.125" style="12"/>
-    <col min="78" max="16384" width="9.125" style="5"/>
+    <col min="5" max="6" width="4.1640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.1640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="11" width="4.1640625" style="12" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.6640625" style="12" customWidth="1"/>
+    <col min="13" max="77" width="9.1640625" style="12"/>
+    <col min="78" max="16384" width="9.1640625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:77">
+    <row r="1" spans="1:77" x14ac:dyDescent="0.15">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -3127,7 +3136,7 @@
       <c r="F1" s="12"/>
       <c r="G1" s="12"/>
     </row>
-    <row r="2" spans="1:77" s="3" customFormat="1" hidden="1">
+    <row r="2" spans="1:77" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A2" s="15" t="s">
         <v>18</v>
       </c>
@@ -3212,7 +3221,7 @@
       <c r="BX2" s="15"/>
       <c r="BY2" s="15"/>
     </row>
-    <row r="3" spans="1:77" s="3" customFormat="1">
+    <row r="3" spans="1:77" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="15" t="s">
         <v>20</v>
       </c>
@@ -3299,7 +3308,7 @@
       <c r="BX3" s="15"/>
       <c r="BY3" s="15"/>
     </row>
-    <row r="4" spans="1:77" s="3" customFormat="1" hidden="1">
+    <row r="4" spans="1:77" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A4" s="15" t="s">
         <v>22</v>
       </c>
@@ -3384,7 +3393,7 @@
       <c r="BX4" s="15"/>
       <c r="BY4" s="15"/>
     </row>
-    <row r="5" spans="1:77" s="3" customFormat="1">
+    <row r="5" spans="1:77" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="15" t="s">
         <v>23</v>
       </c>
@@ -3471,7 +3480,7 @@
       <c r="BX5" s="15"/>
       <c r="BY5" s="15"/>
     </row>
-    <row r="6" spans="1:77" s="3" customFormat="1" hidden="1">
+    <row r="6" spans="1:77" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A6" s="15" t="s">
         <v>25</v>
       </c>
@@ -3556,7 +3565,7 @@
       <c r="BX6" s="15"/>
       <c r="BY6" s="15"/>
     </row>
-    <row r="7" spans="1:77" s="3" customFormat="1">
+    <row r="7" spans="1:77" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A7" s="15" t="s">
         <v>26</v>
       </c>
@@ -3643,7 +3652,7 @@
       <c r="BX7" s="15"/>
       <c r="BY7" s="15"/>
     </row>
-    <row r="8" spans="1:77" s="2" customFormat="1" hidden="1">
+    <row r="8" spans="1:77" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A8" s="14" t="s">
         <v>28</v>
       </c>
@@ -3728,7 +3737,7 @@
       <c r="BX8" s="14"/>
       <c r="BY8" s="14"/>
     </row>
-    <row r="9" spans="1:77" s="2" customFormat="1">
+    <row r="9" spans="1:77" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A9" s="14" t="s">
         <v>29</v>
       </c>
@@ -3815,7 +3824,7 @@
       <c r="BX9" s="14"/>
       <c r="BY9" s="14"/>
     </row>
-    <row r="10" spans="1:77" s="3" customFormat="1" hidden="1">
+    <row r="10" spans="1:77" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A10" s="15" t="s">
         <v>31</v>
       </c>
@@ -3900,7 +3909,7 @@
       <c r="BX10" s="15"/>
       <c r="BY10" s="15"/>
     </row>
-    <row r="11" spans="1:77" s="3" customFormat="1">
+    <row r="11" spans="1:77" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A11" s="15" t="s">
         <v>32</v>
       </c>
@@ -3987,7 +3996,7 @@
       <c r="BX11" s="15"/>
       <c r="BY11" s="15"/>
     </row>
-    <row r="12" spans="1:77" s="4" customFormat="1" ht="14.25" hidden="1">
+    <row r="12" spans="1:77" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A12" s="17" t="s">
         <v>34</v>
       </c>
@@ -4072,7 +4081,7 @@
       <c r="BX12" s="17"/>
       <c r="BY12" s="17"/>
     </row>
-    <row r="13" spans="1:77" s="3" customFormat="1" hidden="1">
+    <row r="13" spans="1:77" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A13" s="15" t="s">
         <v>36</v>
       </c>
@@ -4157,7 +4166,7 @@
       <c r="BX13" s="15"/>
       <c r="BY13" s="15"/>
     </row>
-    <row r="14" spans="1:77" s="2" customFormat="1" hidden="1">
+    <row r="14" spans="1:77" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A14" s="14" t="s">
         <v>37</v>
       </c>
@@ -4242,7 +4251,7 @@
       <c r="BX14" s="14"/>
       <c r="BY14" s="14"/>
     </row>
-    <row r="15" spans="1:77" s="2" customFormat="1">
+    <row r="15" spans="1:77" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A15" s="14" t="s">
         <v>38</v>
       </c>
@@ -4329,7 +4338,7 @@
       <c r="BX15" s="14"/>
       <c r="BY15" s="14"/>
     </row>
-    <row r="16" spans="1:77" s="3" customFormat="1" hidden="1">
+    <row r="16" spans="1:77" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A16" s="15" t="s">
         <v>40</v>
       </c>
@@ -4414,7 +4423,7 @@
       <c r="BX16" s="15"/>
       <c r="BY16" s="15"/>
     </row>
-    <row r="17" spans="1:77" s="3" customFormat="1" hidden="1">
+    <row r="17" spans="1:77" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A17" s="15" t="s">
         <v>42</v>
       </c>
@@ -4499,7 +4508,7 @@
       <c r="BX17" s="15"/>
       <c r="BY17" s="15"/>
     </row>
-    <row r="18" spans="1:77" s="3" customFormat="1">
+    <row r="18" spans="1:77" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A18" s="15" t="s">
         <v>43</v>
       </c>
@@ -4586,7 +4595,7 @@
       <c r="BX18" s="15"/>
       <c r="BY18" s="15"/>
     </row>
-    <row r="19" spans="1:77" s="1" customFormat="1" hidden="1">
+    <row r="19" spans="1:77" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A19" s="9" t="s">
         <v>45</v>
       </c>
@@ -4671,7 +4680,7 @@
       <c r="BX19" s="9"/>
       <c r="BY19" s="9"/>
     </row>
-    <row r="20" spans="1:77" s="1" customFormat="1">
+    <row r="20" spans="1:77" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A20" s="9" t="s">
         <v>47</v>
       </c>
@@ -4758,7 +4767,7 @@
       <c r="BX20" s="9"/>
       <c r="BY20" s="9"/>
     </row>
-    <row r="21" spans="1:77" s="1" customFormat="1" hidden="1">
+    <row r="21" spans="1:77" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A21" s="9" t="s">
         <v>49</v>
       </c>
@@ -4843,7 +4852,7 @@
       <c r="BX21" s="9"/>
       <c r="BY21" s="9"/>
     </row>
-    <row r="22" spans="1:77" s="1" customFormat="1" hidden="1">
+    <row r="22" spans="1:77" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A22" s="9" t="s">
         <v>50</v>
       </c>
@@ -4928,7 +4937,7 @@
       <c r="BX22" s="9"/>
       <c r="BY22" s="9"/>
     </row>
-    <row r="23" spans="1:77" s="3" customFormat="1" hidden="1">
+    <row r="23" spans="1:77" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A23" s="15" t="s">
         <v>51</v>
       </c>
@@ -5013,7 +5022,7 @@
       <c r="BX23" s="15"/>
       <c r="BY23" s="15"/>
     </row>
-    <row r="24" spans="1:77" s="1" customFormat="1" hidden="1">
+    <row r="24" spans="1:77" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A24" s="9" t="s">
         <v>52</v>
       </c>
@@ -5098,7 +5107,7 @@
       <c r="BX24" s="9"/>
       <c r="BY24" s="9"/>
     </row>
-    <row r="25" spans="1:77" s="3" customFormat="1">
+    <row r="25" spans="1:77" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A25" s="15" t="s">
         <v>53</v>
       </c>
@@ -5185,7 +5194,7 @@
       <c r="BX25" s="15"/>
       <c r="BY25" s="15"/>
     </row>
-    <row r="26" spans="1:77" s="3" customFormat="1" hidden="1">
+    <row r="26" spans="1:77" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A26" s="15" t="s">
         <v>55</v>
       </c>
@@ -5270,7 +5279,7 @@
       <c r="BX26" s="15"/>
       <c r="BY26" s="15"/>
     </row>
-    <row r="27" spans="1:77" s="3" customFormat="1">
+    <row r="27" spans="1:77" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A27" s="15" t="s">
         <v>56</v>
       </c>
@@ -5357,7 +5366,7 @@
       <c r="BX27" s="15"/>
       <c r="BY27" s="15"/>
     </row>
-    <row r="28" spans="1:77" s="3" customFormat="1" hidden="1">
+    <row r="28" spans="1:77" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A28" s="15" t="s">
         <v>58</v>
       </c>
@@ -5442,7 +5451,7 @@
       <c r="BX28" s="15"/>
       <c r="BY28" s="15"/>
     </row>
-    <row r="29" spans="1:77" s="1" customFormat="1">
+    <row r="29" spans="1:77" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A29" s="9" t="s">
         <v>59</v>
       </c>
@@ -5529,7 +5538,7 @@
       <c r="BX29" s="9"/>
       <c r="BY29" s="9"/>
     </row>
-    <row r="30" spans="1:77" s="1" customFormat="1" hidden="1">
+    <row r="30" spans="1:77" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A30" s="9" t="s">
         <v>61</v>
       </c>
@@ -5614,7 +5623,7 @@
       <c r="BX30" s="9"/>
       <c r="BY30" s="9"/>
     </row>
-    <row r="31" spans="1:77" s="1" customFormat="1" hidden="1">
+    <row r="31" spans="1:77" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A31" s="9" t="s">
         <v>62</v>
       </c>
@@ -5699,7 +5708,7 @@
       <c r="BX31" s="9"/>
       <c r="BY31" s="9"/>
     </row>
-    <row r="32" spans="1:77" customFormat="1" hidden="1">
+    <row r="32" spans="1:77" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A32" s="11" t="s">
         <v>63</v>
       </c>
@@ -5784,7 +5793,7 @@
       <c r="BX32" s="8"/>
       <c r="BY32" s="8"/>
     </row>
-    <row r="33" spans="1:77" s="3" customFormat="1" hidden="1">
+    <row r="33" spans="1:77" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A33" s="15" t="s">
         <v>65</v>
       </c>
@@ -5869,7 +5878,7 @@
       <c r="BX33" s="15"/>
       <c r="BY33" s="15"/>
     </row>
-    <row r="34" spans="1:77" s="3" customFormat="1">
+    <row r="34" spans="1:77" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A34" s="15" t="s">
         <v>66</v>
       </c>
@@ -5954,7 +5963,7 @@
       <c r="BX34" s="15"/>
       <c r="BY34" s="15"/>
     </row>
-    <row r="35" spans="1:77" customFormat="1">
+    <row r="35" spans="1:77" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A35" s="11" t="s">
         <v>68</v>
       </c>
@@ -6041,7 +6050,7 @@
       <c r="BX35" s="8"/>
       <c r="BY35" s="8"/>
     </row>
-    <row r="36" spans="1:77" s="3" customFormat="1" hidden="1">
+    <row r="36" spans="1:77" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A36" s="15" t="s">
         <v>70</v>
       </c>
@@ -6126,7 +6135,7 @@
       <c r="BX36" s="15"/>
       <c r="BY36" s="15"/>
     </row>
-    <row r="37" spans="1:77" s="3" customFormat="1">
+    <row r="37" spans="1:77" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A37" s="15" t="s">
         <v>71</v>
       </c>
@@ -6211,7 +6220,7 @@
       <c r="BX37" s="15"/>
       <c r="BY37" s="15"/>
     </row>
-    <row r="38" spans="1:77" s="3" customFormat="1" hidden="1">
+    <row r="38" spans="1:77" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A38" s="15" t="s">
         <v>73</v>
       </c>
@@ -6296,7 +6305,7 @@
       <c r="BX38" s="15"/>
       <c r="BY38" s="15"/>
     </row>
-    <row r="39" spans="1:77" s="3" customFormat="1">
+    <row r="39" spans="1:77" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A39" s="15" t="s">
         <v>74</v>
       </c>
@@ -6381,7 +6390,7 @@
       <c r="BX39" s="15"/>
       <c r="BY39" s="15"/>
     </row>
-    <row r="40" spans="1:77" s="3" customFormat="1" hidden="1">
+    <row r="40" spans="1:77" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A40" s="15" t="s">
         <v>76</v>
       </c>
@@ -6466,7 +6475,7 @@
       <c r="BX40" s="15"/>
       <c r="BY40" s="15"/>
     </row>
-    <row r="41" spans="1:77" s="3" customFormat="1">
+    <row r="41" spans="1:77" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A41" s="15" t="s">
         <v>77</v>
       </c>
@@ -6551,7 +6560,7 @@
       <c r="BX41" s="15"/>
       <c r="BY41" s="15"/>
     </row>
-    <row r="42" spans="1:77" s="3" customFormat="1" hidden="1">
+    <row r="42" spans="1:77" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A42" s="15" t="s">
         <v>79</v>
       </c>
@@ -6636,7 +6645,7 @@
       <c r="BX42" s="15"/>
       <c r="BY42" s="15"/>
     </row>
-    <row r="43" spans="1:77" s="4" customFormat="1" ht="14.25" hidden="1">
+    <row r="43" spans="1:77" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A43" s="17" t="s">
         <v>80</v>
       </c>
@@ -6721,7 +6730,7 @@
       <c r="BX43" s="17"/>
       <c r="BY43" s="17"/>
     </row>
-    <row r="44" spans="1:77" s="3" customFormat="1">
+    <row r="44" spans="1:77" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A44" s="15" t="s">
         <v>82</v>
       </c>
@@ -6806,7 +6815,7 @@
       <c r="BX44" s="15"/>
       <c r="BY44" s="15"/>
     </row>
-    <row r="45" spans="1:77" s="3" customFormat="1" hidden="1">
+    <row r="45" spans="1:77" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A45" s="15" t="s">
         <v>84</v>
       </c>
@@ -6891,7 +6900,7 @@
       <c r="BX45" s="15"/>
       <c r="BY45" s="15"/>
     </row>
-    <row r="46" spans="1:77" s="3" customFormat="1">
+    <row r="46" spans="1:77" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A46" s="15" t="s">
         <v>85</v>
       </c>
@@ -6976,7 +6985,7 @@
       <c r="BX46" s="15"/>
       <c r="BY46" s="15"/>
     </row>
-    <row r="47" spans="1:77" s="3" customFormat="1" hidden="1">
+    <row r="47" spans="1:77" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A47" s="15" t="s">
         <v>87</v>
       </c>
@@ -7061,7 +7070,7 @@
       <c r="BX47" s="15"/>
       <c r="BY47" s="15"/>
     </row>
-    <row r="48" spans="1:77" s="3" customFormat="1">
+    <row r="48" spans="1:77" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A48" s="15" t="s">
         <v>87</v>
       </c>
@@ -7146,7 +7155,7 @@
       <c r="BX48" s="15"/>
       <c r="BY48" s="15"/>
     </row>
-    <row r="49" spans="1:77" s="2" customFormat="1" hidden="1">
+    <row r="49" spans="1:77" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A49" s="14" t="s">
         <v>89</v>
       </c>
@@ -7231,7 +7240,7 @@
       <c r="BX49" s="14"/>
       <c r="BY49" s="14"/>
     </row>
-    <row r="50" spans="1:77" s="2" customFormat="1" hidden="1">
+    <row r="50" spans="1:77" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A50" s="14" t="s">
         <v>90</v>
       </c>
@@ -7316,7 +7325,7 @@
       <c r="BX50" s="14"/>
       <c r="BY50" s="14"/>
     </row>
-    <row r="51" spans="1:77" s="2" customFormat="1" hidden="1">
+    <row r="51" spans="1:77" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A51" s="14" t="s">
         <v>91</v>
       </c>
@@ -7401,7 +7410,7 @@
       <c r="BX51" s="14"/>
       <c r="BY51" s="14"/>
     </row>
-    <row r="52" spans="1:77" s="7" customFormat="1">
+    <row r="52" spans="1:77" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A52" s="13" t="s">
         <v>92</v>
       </c>
@@ -7486,7 +7495,7 @@
       <c r="BX52" s="13"/>
       <c r="BY52" s="13"/>
     </row>
-    <row r="53" spans="1:77" customFormat="1" hidden="1">
+    <row r="53" spans="1:77" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A53" s="11" t="s">
         <v>94</v>
       </c>
@@ -7571,7 +7580,7 @@
       <c r="BX53" s="8"/>
       <c r="BY53" s="8"/>
     </row>
-    <row r="54" spans="1:77" s="8" customFormat="1" hidden="1">
+    <row r="54" spans="1:77" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A54" s="11" t="s">
         <v>95</v>
       </c>
@@ -7583,7 +7592,7 @@
       </c>
       <c r="D54" s="11"/>
     </row>
-    <row r="55" spans="1:77" s="9" customFormat="1" hidden="1">
+    <row r="55" spans="1:77" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A55" s="9" t="s">
         <v>97</v>
       </c>
@@ -7594,7 +7603,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="56" spans="1:77" s="9" customFormat="1" hidden="1">
+    <row r="56" spans="1:77" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A56" s="9" t="s">
         <v>98</v>
       </c>
@@ -7605,7 +7614,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="57" spans="1:77" s="9" customFormat="1" hidden="1">
+    <row r="57" spans="1:77" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A57" s="9" t="s">
         <v>99</v>
       </c>
@@ -7616,7 +7625,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="58" spans="1:77" s="9" customFormat="1" hidden="1">
+    <row r="58" spans="1:77" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A58" s="9" t="s">
         <v>100</v>
       </c>
@@ -7627,7 +7636,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="59" spans="1:77" s="9" customFormat="1" hidden="1">
+    <row r="59" spans="1:77" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A59" s="9" t="s">
         <v>101</v>
       </c>
@@ -7638,7 +7647,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="60" spans="1:77" s="8" customFormat="1" hidden="1">
+    <row r="60" spans="1:77" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A60" s="11" t="s">
         <v>102</v>
       </c>
@@ -7650,7 +7659,7 @@
       </c>
       <c r="D60" s="11"/>
     </row>
-    <row r="61" spans="1:77" s="8" customFormat="1" hidden="1">
+    <row r="61" spans="1:77" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A61" s="11" t="s">
         <v>103</v>
       </c>
@@ -7662,7 +7671,7 @@
       </c>
       <c r="D61" s="11"/>
     </row>
-    <row r="62" spans="1:77" s="9" customFormat="1" hidden="1">
+    <row r="62" spans="1:77" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A62" s="9" t="s">
         <v>104</v>
       </c>
@@ -7673,7 +7682,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="63" spans="1:77" s="9" customFormat="1" hidden="1">
+    <row r="63" spans="1:77" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A63" s="9" t="s">
         <v>105</v>
       </c>
@@ -7684,7 +7693,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="64" spans="1:77" s="8" customFormat="1">
+    <row r="64" spans="1:77" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A64" s="11" t="s">
         <v>106</v>
       </c>
@@ -7695,10 +7704,10 @@
         <v>107</v>
       </c>
       <c r="D64" s="11" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="65" spans="1:77" s="9" customFormat="1" hidden="1">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="65" spans="1:77" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A65" s="9" t="s">
         <v>108</v>
       </c>
@@ -7709,7 +7718,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="66" spans="1:77" s="8" customFormat="1" hidden="1">
+    <row r="66" spans="1:77" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A66" s="11" t="s">
         <v>109</v>
       </c>
@@ -7721,7 +7730,7 @@
       </c>
       <c r="D66" s="11"/>
     </row>
-    <row r="67" spans="1:77" s="9" customFormat="1" hidden="1">
+    <row r="67" spans="1:77" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A67" s="9" t="s">
         <v>110</v>
       </c>
@@ -7732,7 +7741,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="68" spans="1:77" s="8" customFormat="1">
+    <row r="68" spans="1:77" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A68" s="11" t="s">
         <v>111</v>
       </c>
@@ -7743,10 +7752,10 @@
         <v>112</v>
       </c>
       <c r="D68" s="11" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="69" spans="1:77" s="1" customFormat="1" hidden="1">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="69" spans="1:77" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A69" s="9" t="s">
         <v>113</v>
       </c>
@@ -7831,7 +7840,7 @@
       <c r="BX69" s="9"/>
       <c r="BY69" s="9"/>
     </row>
-    <row r="70" spans="1:77" s="10" customFormat="1">
+    <row r="70" spans="1:77" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A70" s="9" t="s">
         <v>114</v>
       </c>
@@ -7842,7 +7851,7 @@
         <v>115</v>
       </c>
       <c r="D70" s="9" t="s">
-        <v>708</v>
+        <v>717</v>
       </c>
       <c r="E70" s="9"/>
       <c r="F70" s="9"/>
@@ -7918,7 +7927,7 @@
       <c r="BX70" s="9"/>
       <c r="BY70" s="9"/>
     </row>
-    <row r="71" spans="1:77" customFormat="1" hidden="1">
+    <row r="71" spans="1:77" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A71" s="11" t="s">
         <v>116</v>
       </c>
@@ -8003,7 +8012,7 @@
       <c r="BX71" s="8"/>
       <c r="BY71" s="8"/>
     </row>
-    <row r="72" spans="1:77" customFormat="1" hidden="1">
+    <row r="72" spans="1:77" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A72" s="11" t="s">
         <v>118</v>
       </c>
@@ -8088,7 +8097,7 @@
       <c r="BX72" s="8"/>
       <c r="BY72" s="8"/>
     </row>
-    <row r="73" spans="1:77" customFormat="1" hidden="1">
+    <row r="73" spans="1:77" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A73" s="11" t="s">
         <v>120</v>
       </c>
@@ -8173,7 +8182,7 @@
       <c r="BX73" s="8"/>
       <c r="BY73" s="8"/>
     </row>
-    <row r="74" spans="1:77" s="1" customFormat="1" hidden="1">
+    <row r="74" spans="1:77" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A74" s="9" t="s">
         <v>122</v>
       </c>
@@ -8258,7 +8267,7 @@
       <c r="BX74" s="9"/>
       <c r="BY74" s="9"/>
     </row>
-    <row r="75" spans="1:77" s="8" customFormat="1" hidden="1">
+    <row r="75" spans="1:77" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A75" s="11" t="s">
         <v>123</v>
       </c>
@@ -8270,7 +8279,7 @@
       </c>
       <c r="D75" s="11"/>
     </row>
-    <row r="76" spans="1:77" s="10" customFormat="1">
+    <row r="76" spans="1:77" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A76" s="9" t="s">
         <v>124</v>
       </c>
@@ -8281,7 +8290,7 @@
         <v>125</v>
       </c>
       <c r="D76" s="9" t="s">
-        <v>708</v>
+        <v>717</v>
       </c>
       <c r="E76" s="9"/>
       <c r="F76" s="9"/>
@@ -8357,7 +8366,7 @@
       <c r="BX76" s="9"/>
       <c r="BY76" s="9"/>
     </row>
-    <row r="77" spans="1:77" s="8" customFormat="1" hidden="1">
+    <row r="77" spans="1:77" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A77" s="11" t="s">
         <v>126</v>
       </c>
@@ -8369,7 +8378,7 @@
       </c>
       <c r="D77" s="11"/>
     </row>
-    <row r="78" spans="1:77" s="9" customFormat="1" hidden="1">
+    <row r="78" spans="1:77" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A78" s="9" t="s">
         <v>127</v>
       </c>
@@ -8380,7 +8389,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="79" spans="1:77" s="8" customFormat="1" hidden="1">
+    <row r="79" spans="1:77" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A79" s="11" t="s">
         <v>128</v>
       </c>
@@ -8392,7 +8401,7 @@
       </c>
       <c r="D79" s="11"/>
     </row>
-    <row r="80" spans="1:77" s="8" customFormat="1" hidden="1">
+    <row r="80" spans="1:77" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A80" s="11" t="s">
         <v>129</v>
       </c>
@@ -8404,7 +8413,7 @@
       </c>
       <c r="D80" s="11"/>
     </row>
-    <row r="81" spans="1:77" customFormat="1" hidden="1">
+    <row r="81" spans="1:77" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A81" s="11" t="s">
         <v>130</v>
       </c>
@@ -8489,7 +8498,7 @@
       <c r="BX81" s="8"/>
       <c r="BY81" s="8"/>
     </row>
-    <row r="82" spans="1:77" s="10" customFormat="1">
+    <row r="82" spans="1:77" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A82" s="9" t="s">
         <v>131</v>
       </c>
@@ -8500,7 +8509,7 @@
         <v>132</v>
       </c>
       <c r="D82" s="9" t="s">
-        <v>708</v>
+        <v>717</v>
       </c>
       <c r="E82" s="9"/>
       <c r="F82" s="9"/>
@@ -8576,7 +8585,7 @@
       <c r="BX82" s="9"/>
       <c r="BY82" s="9"/>
     </row>
-    <row r="83" spans="1:77" s="8" customFormat="1">
+    <row r="83" spans="1:77" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A83" s="11" t="s">
         <v>133</v>
       </c>
@@ -8587,10 +8596,10 @@
         <v>134</v>
       </c>
       <c r="D83" s="11" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="84" spans="1:77" customFormat="1" hidden="1">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="84" spans="1:77" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A84" s="11" t="s">
         <v>135</v>
       </c>
@@ -8675,7 +8684,7 @@
       <c r="BX84" s="8"/>
       <c r="BY84" s="8"/>
     </row>
-    <row r="85" spans="1:77" customFormat="1" hidden="1">
+    <row r="85" spans="1:77" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A85" s="11" t="s">
         <v>136</v>
       </c>
@@ -8760,7 +8769,7 @@
       <c r="BX85" s="8"/>
       <c r="BY85" s="8"/>
     </row>
-    <row r="86" spans="1:77" s="1" customFormat="1" hidden="1">
+    <row r="86" spans="1:77" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A86" s="9" t="s">
         <v>137</v>
       </c>
@@ -8845,7 +8854,7 @@
       <c r="BX86" s="9"/>
       <c r="BY86" s="9"/>
     </row>
-    <row r="87" spans="1:77" s="4" customFormat="1" ht="14.25" hidden="1">
+    <row r="87" spans="1:77" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A87" s="17" t="s">
         <v>138</v>
       </c>
@@ -8930,7 +8939,7 @@
       <c r="BX87" s="17"/>
       <c r="BY87" s="17"/>
     </row>
-    <row r="88" spans="1:77" customFormat="1">
+    <row r="88" spans="1:77" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A88" s="11" t="s">
         <v>139</v>
       </c>
@@ -8941,7 +8950,7 @@
         <v>140</v>
       </c>
       <c r="D88" s="11" t="s">
-        <v>708</v>
+        <v>717</v>
       </c>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
@@ -9017,7 +9026,7 @@
       <c r="BX88" s="8"/>
       <c r="BY88" s="8"/>
     </row>
-    <row r="89" spans="1:77" s="1" customFormat="1">
+    <row r="89" spans="1:77" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A89" s="9" t="s">
         <v>141</v>
       </c>
@@ -9102,7 +9111,7 @@
       <c r="BX89" s="9"/>
       <c r="BY89" s="9"/>
     </row>
-    <row r="90" spans="1:77" customFormat="1" hidden="1">
+    <row r="90" spans="1:77" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A90" s="11" t="s">
         <v>143</v>
       </c>
@@ -9187,7 +9196,7 @@
       <c r="BX90" s="8"/>
       <c r="BY90" s="8"/>
     </row>
-    <row r="91" spans="1:77" customFormat="1">
+    <row r="91" spans="1:77" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A91" s="11" t="s">
         <v>144</v>
       </c>
@@ -9272,7 +9281,7 @@
       <c r="BX91" s="8"/>
       <c r="BY91" s="8"/>
     </row>
-    <row r="92" spans="1:77" s="1" customFormat="1" hidden="1">
+    <row r="92" spans="1:77" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A92" s="9" t="s">
         <v>146</v>
       </c>
@@ -9357,7 +9366,7 @@
       <c r="BX92" s="9"/>
       <c r="BY92" s="9"/>
     </row>
-    <row r="93" spans="1:77" s="8" customFormat="1" hidden="1">
+    <row r="93" spans="1:77" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A93" s="11" t="s">
         <v>147</v>
       </c>
@@ -9369,7 +9378,7 @@
       </c>
       <c r="D93" s="11"/>
     </row>
-    <row r="94" spans="1:77" s="9" customFormat="1" hidden="1">
+    <row r="94" spans="1:77" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A94" s="9" t="s">
         <v>148</v>
       </c>
@@ -9380,7 +9389,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="95" spans="1:77" s="8" customFormat="1" hidden="1">
+    <row r="95" spans="1:77" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A95" s="11" t="s">
         <v>149</v>
       </c>
@@ -9392,7 +9401,7 @@
       </c>
       <c r="D95" s="11"/>
     </row>
-    <row r="96" spans="1:77" s="9" customFormat="1">
+    <row r="96" spans="1:77" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A96" s="9" t="s">
         <v>150</v>
       </c>
@@ -9403,10 +9412,10 @@
         <v>151</v>
       </c>
       <c r="D96" s="9" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" s="8" customFormat="1" hidden="1">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A97" s="11" t="s">
         <v>152</v>
       </c>
@@ -9418,7 +9427,7 @@
       </c>
       <c r="D97" s="11"/>
     </row>
-    <row r="98" spans="1:4" s="8" customFormat="1" hidden="1">
+    <row r="98" spans="1:4" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A98" s="11" t="s">
         <v>153</v>
       </c>
@@ -9430,7 +9439,7 @@
       </c>
       <c r="D98" s="11"/>
     </row>
-    <row r="99" spans="1:4" s="14" customFormat="1" hidden="1">
+    <row r="99" spans="1:4" s="14" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A99" s="14" t="s">
         <v>154</v>
       </c>
@@ -9441,7 +9450,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="100" spans="1:4" s="14" customFormat="1" hidden="1">
+    <row r="100" spans="1:4" s="14" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A100" s="14" t="s">
         <v>155</v>
       </c>
@@ -9452,7 +9461,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="101" spans="1:4" s="8" customFormat="1">
+    <row r="101" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A101" s="11" t="s">
         <v>156</v>
       </c>
@@ -9463,10 +9472,10 @@
         <v>157</v>
       </c>
       <c r="D101" s="11" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" s="8" customFormat="1" hidden="1">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A102" s="11" t="s">
         <v>158</v>
       </c>
@@ -9478,7 +9487,7 @@
       </c>
       <c r="D102" s="11"/>
     </row>
-    <row r="103" spans="1:4" s="14" customFormat="1" hidden="1">
+    <row r="103" spans="1:4" s="14" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A103" s="14" t="s">
         <v>159</v>
       </c>
@@ -9489,7 +9498,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="104" spans="1:4" s="8" customFormat="1">
+    <row r="104" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A104" s="11" t="s">
         <v>160</v>
       </c>
@@ -9500,10 +9509,10 @@
         <v>161</v>
       </c>
       <c r="D104" s="11" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" s="9" customFormat="1" hidden="1">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A105" s="9" t="s">
         <v>162</v>
       </c>
@@ -9514,7 +9523,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="106" spans="1:4" s="9" customFormat="1">
+    <row r="106" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A106" s="9" t="s">
         <v>163</v>
       </c>
@@ -9525,10 +9534,10 @@
         <v>164</v>
       </c>
       <c r="D106" s="9" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" s="8" customFormat="1" hidden="1">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A107" s="11" t="s">
         <v>165</v>
       </c>
@@ -9540,7 +9549,7 @@
       </c>
       <c r="D107" s="11"/>
     </row>
-    <row r="108" spans="1:4" s="8" customFormat="1">
+    <row r="108" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A108" s="11" t="s">
         <v>166</v>
       </c>
@@ -9551,10 +9560,10 @@
         <v>167</v>
       </c>
       <c r="D108" s="11" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" s="8" customFormat="1" hidden="1">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A109" s="11" t="s">
         <v>168</v>
       </c>
@@ -9566,7 +9575,7 @@
       </c>
       <c r="D109" s="11"/>
     </row>
-    <row r="110" spans="1:4" s="9" customFormat="1" hidden="1">
+    <row r="110" spans="1:4" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A110" s="9" t="s">
         <v>169</v>
       </c>
@@ -9577,7 +9586,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="111" spans="1:4" s="8" customFormat="1">
+    <row r="111" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A111" s="11" t="s">
         <v>170</v>
       </c>
@@ -9588,10 +9597,10 @@
         <v>171</v>
       </c>
       <c r="D111" s="11" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" s="9" customFormat="1">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A112" s="9" t="s">
         <v>172</v>
       </c>
@@ -9602,10 +9611,10 @@
         <v>173</v>
       </c>
       <c r="D112" s="9" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="113" spans="1:77" s="15" customFormat="1" hidden="1">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="113" spans="1:77" s="15" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A113" s="15" t="s">
         <v>174</v>
       </c>
@@ -9616,7 +9625,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="114" spans="1:77" s="9" customFormat="1" hidden="1">
+    <row r="114" spans="1:77" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A114" s="9" t="s">
         <v>175</v>
       </c>
@@ -9627,7 +9636,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="115" spans="1:77" s="8" customFormat="1" hidden="1">
+    <row r="115" spans="1:77" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A115" s="11" t="s">
         <v>176</v>
       </c>
@@ -9639,7 +9648,7 @@
       </c>
       <c r="D115" s="11"/>
     </row>
-    <row r="116" spans="1:77" s="13" customFormat="1">
+    <row r="116" spans="1:77" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A116" s="13" t="s">
         <v>177</v>
       </c>
@@ -9650,10 +9659,10 @@
         <v>178</v>
       </c>
       <c r="D116" s="13" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="117" spans="1:77" s="15" customFormat="1" hidden="1">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="117" spans="1:77" s="15" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A117" s="15" t="s">
         <v>179</v>
       </c>
@@ -9664,7 +9673,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="118" spans="1:77" s="8" customFormat="1" hidden="1">
+    <row r="118" spans="1:77" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A118" s="11" t="s">
         <v>180</v>
       </c>
@@ -9676,7 +9685,7 @@
       </c>
       <c r="D118" s="11"/>
     </row>
-    <row r="119" spans="1:77" s="13" customFormat="1">
+    <row r="119" spans="1:77" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A119" s="13" t="s">
         <v>181</v>
       </c>
@@ -9687,10 +9696,10 @@
         <v>182</v>
       </c>
       <c r="D119" s="13" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="120" spans="1:77" customFormat="1" hidden="1">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="120" spans="1:77" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A120" s="11" t="s">
         <v>183</v>
       </c>
@@ -9775,7 +9784,7 @@
       <c r="BX120" s="8"/>
       <c r="BY120" s="8"/>
     </row>
-    <row r="121" spans="1:77" customFormat="1">
+    <row r="121" spans="1:77" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A121" s="11" t="s">
         <v>184</v>
       </c>
@@ -9786,7 +9795,7 @@
         <v>185</v>
       </c>
       <c r="D121" s="11" t="s">
-        <v>708</v>
+        <v>717</v>
       </c>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
@@ -9862,7 +9871,7 @@
       <c r="BX121" s="8"/>
       <c r="BY121" s="8"/>
     </row>
-    <row r="122" spans="1:77" customFormat="1" hidden="1">
+    <row r="122" spans="1:77" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A122" s="11" t="s">
         <v>186</v>
       </c>
@@ -9947,7 +9956,7 @@
       <c r="BX122" s="8"/>
       <c r="BY122" s="8"/>
     </row>
-    <row r="123" spans="1:77" s="1" customFormat="1" hidden="1">
+    <row r="123" spans="1:77" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A123" s="9" t="s">
         <v>187</v>
       </c>
@@ -10032,7 +10041,7 @@
       <c r="BX123" s="9"/>
       <c r="BY123" s="9"/>
     </row>
-    <row r="124" spans="1:77" hidden="1">
+    <row r="124" spans="1:77" hidden="1" x14ac:dyDescent="0.15">
       <c r="A124" s="12" t="s">
         <v>188</v>
       </c>
@@ -10047,7 +10056,7 @@
       <c r="F124" s="12"/>
       <c r="G124" s="12"/>
     </row>
-    <row r="125" spans="1:77" s="1" customFormat="1" hidden="1">
+    <row r="125" spans="1:77" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A125" s="9" t="s">
         <v>190</v>
       </c>
@@ -10132,7 +10141,7 @@
       <c r="BX125" s="9"/>
       <c r="BY125" s="9"/>
     </row>
-    <row r="126" spans="1:77" customFormat="1">
+    <row r="126" spans="1:77" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A126" s="11" t="s">
         <v>191</v>
       </c>
@@ -10143,7 +10152,7 @@
         <v>192</v>
       </c>
       <c r="D126" s="11" t="s">
-        <v>708</v>
+        <v>717</v>
       </c>
       <c r="E126" s="8"/>
       <c r="F126" s="8"/>
@@ -10219,7 +10228,7 @@
       <c r="BX126" s="8"/>
       <c r="BY126" s="8"/>
     </row>
-    <row r="127" spans="1:77" hidden="1">
+    <row r="127" spans="1:77" hidden="1" x14ac:dyDescent="0.15">
       <c r="A127" s="12" t="s">
         <v>195</v>
       </c>
@@ -10234,7 +10243,7 @@
       <c r="F127" s="12"/>
       <c r="G127" s="12"/>
     </row>
-    <row r="128" spans="1:77" customFormat="1" hidden="1">
+    <row r="128" spans="1:77" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A128" s="11" t="s">
         <v>197</v>
       </c>
@@ -10319,7 +10328,7 @@
       <c r="BX128" s="8"/>
       <c r="BY128" s="8"/>
     </row>
-    <row r="129" spans="1:77" hidden="1">
+    <row r="129" spans="1:77" hidden="1" x14ac:dyDescent="0.15">
       <c r="A129" s="12" t="s">
         <v>198</v>
       </c>
@@ -10334,7 +10343,7 @@
       <c r="F129" s="12"/>
       <c r="G129" s="12"/>
     </row>
-    <row r="130" spans="1:77" hidden="1">
+    <row r="130" spans="1:77" hidden="1" x14ac:dyDescent="0.15">
       <c r="A130" s="12" t="s">
         <v>200</v>
       </c>
@@ -10349,7 +10358,7 @@
       <c r="F130" s="12"/>
       <c r="G130" s="12"/>
     </row>
-    <row r="131" spans="1:77" hidden="1">
+    <row r="131" spans="1:77" hidden="1" x14ac:dyDescent="0.15">
       <c r="A131" s="12" t="s">
         <v>201</v>
       </c>
@@ -10364,7 +10373,7 @@
       <c r="F131" s="12"/>
       <c r="G131" s="12"/>
     </row>
-    <row r="132" spans="1:77" hidden="1">
+    <row r="132" spans="1:77" hidden="1" x14ac:dyDescent="0.15">
       <c r="A132" s="12" t="s">
         <v>203</v>
       </c>
@@ -10379,7 +10388,7 @@
       <c r="F132" s="12"/>
       <c r="G132" s="12"/>
     </row>
-    <row r="133" spans="1:77" hidden="1">
+    <row r="133" spans="1:77" hidden="1" x14ac:dyDescent="0.15">
       <c r="A133" s="12" t="s">
         <v>203</v>
       </c>
@@ -10394,7 +10403,7 @@
       <c r="F133" s="12"/>
       <c r="G133" s="12"/>
     </row>
-    <row r="134" spans="1:77" hidden="1">
+    <row r="134" spans="1:77" hidden="1" x14ac:dyDescent="0.15">
       <c r="A134" s="12" t="s">
         <v>206</v>
       </c>
@@ -10409,7 +10418,7 @@
       <c r="F134" s="12"/>
       <c r="G134" s="12"/>
     </row>
-    <row r="135" spans="1:77" hidden="1">
+    <row r="135" spans="1:77" hidden="1" x14ac:dyDescent="0.15">
       <c r="A135" s="12" t="s">
         <v>206</v>
       </c>
@@ -10424,7 +10433,7 @@
       <c r="F135" s="12"/>
       <c r="G135" s="12"/>
     </row>
-    <row r="136" spans="1:77" customFormat="1">
+    <row r="136" spans="1:77" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A136" s="11" t="s">
         <v>208</v>
       </c>
@@ -10509,7 +10518,7 @@
       <c r="BX136" s="8"/>
       <c r="BY136" s="8"/>
     </row>
-    <row r="137" spans="1:77" hidden="1">
+    <row r="137" spans="1:77" hidden="1" x14ac:dyDescent="0.15">
       <c r="A137" s="12" t="s">
         <v>210</v>
       </c>
@@ -10524,7 +10533,7 @@
       <c r="F137" s="12"/>
       <c r="G137" s="12"/>
     </row>
-    <row r="138" spans="1:77" hidden="1">
+    <row r="138" spans="1:77" hidden="1" x14ac:dyDescent="0.15">
       <c r="A138" s="12" t="s">
         <v>211</v>
       </c>
@@ -10539,7 +10548,7 @@
       <c r="F138" s="12"/>
       <c r="G138" s="12"/>
     </row>
-    <row r="139" spans="1:77" hidden="1">
+    <row r="139" spans="1:77" hidden="1" x14ac:dyDescent="0.15">
       <c r="A139" s="12" t="s">
         <v>213</v>
       </c>
@@ -10554,7 +10563,7 @@
       <c r="F139" s="12"/>
       <c r="G139" s="12"/>
     </row>
-    <row r="140" spans="1:77" hidden="1">
+    <row r="140" spans="1:77" hidden="1" x14ac:dyDescent="0.15">
       <c r="A140" s="12" t="s">
         <v>214</v>
       </c>
@@ -10571,7 +10580,7 @@
       <c r="F140" s="12"/>
       <c r="G140" s="12"/>
     </row>
-    <row r="141" spans="1:77" hidden="1">
+    <row r="141" spans="1:77" hidden="1" x14ac:dyDescent="0.15">
       <c r="A141" s="12" t="s">
         <v>214</v>
       </c>
@@ -10586,7 +10595,7 @@
       <c r="F141" s="12"/>
       <c r="G141" s="12"/>
     </row>
-    <row r="142" spans="1:77" hidden="1">
+    <row r="142" spans="1:77" hidden="1" x14ac:dyDescent="0.15">
       <c r="A142" s="12" t="s">
         <v>217</v>
       </c>
@@ -10603,7 +10612,7 @@
       <c r="F142" s="12"/>
       <c r="G142" s="12"/>
     </row>
-    <row r="143" spans="1:77" s="1" customFormat="1" hidden="1">
+    <row r="143" spans="1:77" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A143" s="9" t="s">
         <v>218</v>
       </c>
@@ -10688,7 +10697,7 @@
       <c r="BX143" s="9"/>
       <c r="BY143" s="9"/>
     </row>
-    <row r="144" spans="1:77" hidden="1">
+    <row r="144" spans="1:77" hidden="1" x14ac:dyDescent="0.15">
       <c r="A144" s="12" t="s">
         <v>219</v>
       </c>
@@ -10705,7 +10714,7 @@
       <c r="F144" s="12"/>
       <c r="G144" s="12"/>
     </row>
-    <row r="145" spans="1:77" hidden="1">
+    <row r="145" spans="1:77" hidden="1" x14ac:dyDescent="0.15">
       <c r="A145" s="12" t="s">
         <v>221</v>
       </c>
@@ -10722,7 +10731,7 @@
       <c r="F145" s="12"/>
       <c r="G145" s="12"/>
     </row>
-    <row r="146" spans="1:77" s="3" customFormat="1" hidden="1">
+    <row r="146" spans="1:77" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A146" s="15" t="s">
         <v>223</v>
       </c>
@@ -10807,7 +10816,7 @@
       <c r="BX146" s="15"/>
       <c r="BY146" s="15"/>
     </row>
-    <row r="147" spans="1:77" hidden="1">
+    <row r="147" spans="1:77" hidden="1" x14ac:dyDescent="0.15">
       <c r="A147" s="12" t="s">
         <v>224</v>
       </c>
@@ -10824,7 +10833,7 @@
       <c r="F147" s="12"/>
       <c r="G147" s="12"/>
     </row>
-    <row r="148" spans="1:77" hidden="1">
+    <row r="148" spans="1:77" hidden="1" x14ac:dyDescent="0.15">
       <c r="A148" s="12" t="s">
         <v>226</v>
       </c>
@@ -10841,7 +10850,7 @@
       <c r="F148" s="12"/>
       <c r="G148" s="12"/>
     </row>
-    <row r="149" spans="1:77" s="3" customFormat="1" hidden="1">
+    <row r="149" spans="1:77" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A149" s="15" t="s">
         <v>228</v>
       </c>
@@ -10926,7 +10935,7 @@
       <c r="BX149" s="15"/>
       <c r="BY149" s="15"/>
     </row>
-    <row r="150" spans="1:77" s="1" customFormat="1" hidden="1">
+    <row r="150" spans="1:77" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A150" s="9" t="s">
         <v>229</v>
       </c>
@@ -11011,7 +11020,7 @@
       <c r="BX150" s="9"/>
       <c r="BY150" s="9"/>
     </row>
-    <row r="151" spans="1:77" customFormat="1" hidden="1">
+    <row r="151" spans="1:77" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A151" s="11" t="s">
         <v>230</v>
       </c>
@@ -11096,7 +11105,7 @@
       <c r="BX151" s="8"/>
       <c r="BY151" s="8"/>
     </row>
-    <row r="152" spans="1:77" s="1" customFormat="1">
+    <row r="152" spans="1:77" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A152" s="9" t="s">
         <v>232</v>
       </c>
@@ -11107,7 +11116,7 @@
         <v>233</v>
       </c>
       <c r="D152" s="9" t="s">
-        <v>708</v>
+        <v>717</v>
       </c>
       <c r="E152" s="9"/>
       <c r="F152" s="9"/>
@@ -11183,7 +11192,7 @@
       <c r="BX152" s="9"/>
       <c r="BY152" s="9"/>
     </row>
-    <row r="153" spans="1:77" s="3" customFormat="1" hidden="1">
+    <row r="153" spans="1:77" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A153" s="15" t="s">
         <v>234</v>
       </c>
@@ -11268,7 +11277,7 @@
       <c r="BX153" s="15"/>
       <c r="BY153" s="15"/>
     </row>
-    <row r="154" spans="1:77" customFormat="1" hidden="1">
+    <row r="154" spans="1:77" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A154" s="11" t="s">
         <v>235</v>
       </c>
@@ -11353,7 +11362,7 @@
       <c r="BX154" s="8"/>
       <c r="BY154" s="8"/>
     </row>
-    <row r="155" spans="1:77" customFormat="1" hidden="1">
+    <row r="155" spans="1:77" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A155" s="11" t="s">
         <v>236</v>
       </c>
@@ -11438,7 +11447,7 @@
       <c r="BX155" s="8"/>
       <c r="BY155" s="8"/>
     </row>
-    <row r="156" spans="1:77" customFormat="1" hidden="1">
+    <row r="156" spans="1:77" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A156" s="11" t="s">
         <v>237</v>
       </c>
@@ -11523,7 +11532,7 @@
       <c r="BX156" s="8"/>
       <c r="BY156" s="8"/>
     </row>
-    <row r="157" spans="1:77" s="1" customFormat="1" hidden="1">
+    <row r="157" spans="1:77" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A157" s="9" t="s">
         <v>238</v>
       </c>
@@ -11608,7 +11617,7 @@
       <c r="BX157" s="9"/>
       <c r="BY157" s="9"/>
     </row>
-    <row r="158" spans="1:77" customFormat="1" hidden="1">
+    <row r="158" spans="1:77" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A158" s="11" t="s">
         <v>239</v>
       </c>
@@ -11693,7 +11702,7 @@
       <c r="BX158" s="8"/>
       <c r="BY158" s="8"/>
     </row>
-    <row r="159" spans="1:77" s="1" customFormat="1" hidden="1">
+    <row r="159" spans="1:77" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A159" s="9" t="s">
         <v>240</v>
       </c>
@@ -11778,7 +11787,7 @@
       <c r="BX159" s="9"/>
       <c r="BY159" s="9"/>
     </row>
-    <row r="160" spans="1:77" customFormat="1" hidden="1">
+    <row r="160" spans="1:77" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A160" s="11" t="s">
         <v>241</v>
       </c>
@@ -11863,7 +11872,7 @@
       <c r="BX160" s="8"/>
       <c r="BY160" s="8"/>
     </row>
-    <row r="161" spans="1:77" customFormat="1" hidden="1">
+    <row r="161" spans="1:77" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A161" s="11" t="s">
         <v>242</v>
       </c>
@@ -11948,7 +11957,7 @@
       <c r="BX161" s="8"/>
       <c r="BY161" s="8"/>
     </row>
-    <row r="162" spans="1:77" s="1" customFormat="1" hidden="1">
+    <row r="162" spans="1:77" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A162" s="9" t="s">
         <v>243</v>
       </c>
@@ -12033,7 +12042,7 @@
       <c r="BX162" s="9"/>
       <c r="BY162" s="9"/>
     </row>
-    <row r="163" spans="1:77" s="1" customFormat="1">
+    <row r="163" spans="1:77" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A163" s="9" t="s">
         <v>244</v>
       </c>
@@ -12044,7 +12053,7 @@
         <v>245</v>
       </c>
       <c r="D163" s="9" t="s">
-        <v>708</v>
+        <v>717</v>
       </c>
       <c r="E163" s="9"/>
       <c r="F163" s="9"/>
@@ -12120,7 +12129,7 @@
       <c r="BX163" s="9"/>
       <c r="BY163" s="9"/>
     </row>
-    <row r="164" spans="1:77" hidden="1">
+    <row r="164" spans="1:77" hidden="1" x14ac:dyDescent="0.15">
       <c r="A164" s="12" t="s">
         <v>246</v>
       </c>
@@ -12135,7 +12144,7 @@
       <c r="F164" s="12"/>
       <c r="G164" s="12"/>
     </row>
-    <row r="165" spans="1:77" hidden="1">
+    <row r="165" spans="1:77" hidden="1" x14ac:dyDescent="0.15">
       <c r="A165" s="12" t="s">
         <v>247</v>
       </c>
@@ -12150,7 +12159,7 @@
       <c r="F165" s="12"/>
       <c r="G165" s="12"/>
     </row>
-    <row r="166" spans="1:77" hidden="1">
+    <row r="166" spans="1:77" hidden="1" x14ac:dyDescent="0.15">
       <c r="A166" s="12" t="s">
         <v>248</v>
       </c>
@@ -12165,7 +12174,7 @@
       <c r="F166" s="12"/>
       <c r="G166" s="12"/>
     </row>
-    <row r="167" spans="1:77" hidden="1">
+    <row r="167" spans="1:77" hidden="1" x14ac:dyDescent="0.15">
       <c r="A167" s="12" t="s">
         <v>249</v>
       </c>
@@ -12180,7 +12189,7 @@
       <c r="F167" s="12"/>
       <c r="G167" s="12"/>
     </row>
-    <row r="168" spans="1:77" s="7" customFormat="1" hidden="1">
+    <row r="168" spans="1:77" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A168" s="13" t="s">
         <v>250</v>
       </c>
@@ -12265,7 +12274,7 @@
       <c r="BX168" s="13"/>
       <c r="BY168" s="13"/>
     </row>
-    <row r="169" spans="1:77" s="1" customFormat="1" hidden="1">
+    <row r="169" spans="1:77" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A169" s="9" t="s">
         <v>251</v>
       </c>
@@ -12350,7 +12359,7 @@
       <c r="BX169" s="9"/>
       <c r="BY169" s="9"/>
     </row>
-    <row r="170" spans="1:77" customFormat="1" hidden="1">
+    <row r="170" spans="1:77" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A170" s="11" t="s">
         <v>252</v>
       </c>
@@ -12435,7 +12444,7 @@
       <c r="BX170" s="8"/>
       <c r="BY170" s="8"/>
     </row>
-    <row r="171" spans="1:77" s="1" customFormat="1" hidden="1">
+    <row r="171" spans="1:77" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A171" s="9" t="s">
         <v>253</v>
       </c>
@@ -12520,7 +12529,7 @@
       <c r="BX171" s="9"/>
       <c r="BY171" s="9"/>
     </row>
-    <row r="172" spans="1:77" s="8" customFormat="1">
+    <row r="172" spans="1:77" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A172" s="11" t="s">
         <v>254</v>
       </c>
@@ -12531,11 +12540,11 @@
         <v>255</v>
       </c>
       <c r="D172" s="11" t="s">
-        <v>708</v>
+        <v>717</v>
       </c>
       <c r="E172" s="11"/>
     </row>
-    <row r="173" spans="1:77" s="1" customFormat="1" hidden="1">
+    <row r="173" spans="1:77" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A173" s="9" t="s">
         <v>256</v>
       </c>
@@ -12620,7 +12629,7 @@
       <c r="BX173" s="9"/>
       <c r="BY173" s="9"/>
     </row>
-    <row r="174" spans="1:77" s="1" customFormat="1">
+    <row r="174" spans="1:77" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A174" s="9" t="s">
         <v>257</v>
       </c>
@@ -12705,7 +12714,7 @@
       <c r="BX174" s="9"/>
       <c r="BY174" s="9"/>
     </row>
-    <row r="175" spans="1:77" customFormat="1" hidden="1">
+    <row r="175" spans="1:77" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A175" s="11" t="s">
         <v>259</v>
       </c>
@@ -12790,7 +12799,7 @@
       <c r="BX175" s="8"/>
       <c r="BY175" s="8"/>
     </row>
-    <row r="176" spans="1:77" s="3" customFormat="1" hidden="1">
+    <row r="176" spans="1:77" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A176" s="15" t="s">
         <v>260</v>
       </c>
@@ -12875,7 +12884,7 @@
       <c r="BX176" s="15"/>
       <c r="BY176" s="15"/>
     </row>
-    <row r="177" spans="1:4" s="9" customFormat="1" ht="15.75" hidden="1" customHeight="1">
+    <row r="177" spans="1:4" s="9" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A177" s="9" t="s">
         <v>261</v>
       </c>
@@ -12886,7 +12895,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="178" spans="1:4" s="8" customFormat="1" hidden="1">
+    <row r="178" spans="1:4" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A178" s="11" t="s">
         <v>262</v>
       </c>
@@ -12900,7 +12909,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="179" spans="1:4" s="8" customFormat="1" hidden="1">
+    <row r="179" spans="1:4" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A179" s="11" t="s">
         <v>263</v>
       </c>
@@ -12912,7 +12921,7 @@
       </c>
       <c r="D179" s="11"/>
     </row>
-    <row r="180" spans="1:4" s="9" customFormat="1" hidden="1">
+    <row r="180" spans="1:4" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A180" s="9" t="s">
         <v>264</v>
       </c>
@@ -12923,7 +12932,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="181" spans="1:4" s="9" customFormat="1">
+    <row r="181" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A181" s="9" t="s">
         <v>265</v>
       </c>
@@ -12934,10 +12943,10 @@
         <v>266</v>
       </c>
       <c r="D181" s="9" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="182" spans="1:4" s="8" customFormat="1">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A182" s="11" t="s">
         <v>267</v>
       </c>
@@ -12948,10 +12957,10 @@
         <v>268</v>
       </c>
       <c r="D182" s="11" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="183" spans="1:4" s="9" customFormat="1" hidden="1">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A183" s="9" t="s">
         <v>269</v>
       </c>
@@ -12962,7 +12971,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="184" spans="1:4" s="9" customFormat="1">
+    <row r="184" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A184" s="9" t="s">
         <v>270</v>
       </c>
@@ -12973,7 +12982,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="185" spans="1:4" s="9" customFormat="1" hidden="1">
+    <row r="185" spans="1:4" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A185" s="9" t="s">
         <v>272</v>
       </c>
@@ -12984,7 +12993,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="186" spans="1:4" s="9" customFormat="1">
+    <row r="186" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A186" s="9" t="s">
         <v>273</v>
       </c>
@@ -12995,7 +13004,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="187" spans="1:4" s="8" customFormat="1" hidden="1">
+    <row r="187" spans="1:4" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A187" s="11" t="s">
         <v>275</v>
       </c>
@@ -13007,7 +13016,7 @@
       </c>
       <c r="D187" s="11"/>
     </row>
-    <row r="188" spans="1:4" s="9" customFormat="1" hidden="1">
+    <row r="188" spans="1:4" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A188" s="9" t="s">
         <v>276</v>
       </c>
@@ -13018,7 +13027,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="189" spans="1:4" s="9" customFormat="1">
+    <row r="189" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A189" s="9" t="s">
         <v>277</v>
       </c>
@@ -13029,7 +13038,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="190" spans="1:4" s="8" customFormat="1">
+    <row r="190" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A190" s="11" t="s">
         <v>279</v>
       </c>
@@ -13041,7 +13050,7 @@
       </c>
       <c r="D190" s="11"/>
     </row>
-    <row r="191" spans="1:4" s="8" customFormat="1" hidden="1">
+    <row r="191" spans="1:4" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A191" s="11" t="s">
         <v>281</v>
       </c>
@@ -13053,7 +13062,7 @@
       </c>
       <c r="D191" s="11"/>
     </row>
-    <row r="192" spans="1:4" s="9" customFormat="1" hidden="1">
+    <row r="192" spans="1:4" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A192" s="9" t="s">
         <v>282</v>
       </c>
@@ -13064,7 +13073,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="193" spans="1:77" s="8" customFormat="1">
+    <row r="193" spans="1:77" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A193" s="11" t="s">
         <v>283</v>
       </c>
@@ -13075,10 +13084,10 @@
         <v>284</v>
       </c>
       <c r="D193" s="11" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="194" spans="1:77" s="8" customFormat="1" hidden="1">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="194" spans="1:77" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A194" s="11" t="s">
         <v>285</v>
       </c>
@@ -13090,7 +13099,7 @@
       </c>
       <c r="D194" s="11"/>
     </row>
-    <row r="195" spans="1:77" s="9" customFormat="1" hidden="1">
+    <row r="195" spans="1:77" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A195" s="9" t="s">
         <v>286</v>
       </c>
@@ -13101,7 +13110,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="196" spans="1:77" s="8" customFormat="1">
+    <row r="196" spans="1:77" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A196" s="11" t="s">
         <v>287</v>
       </c>
@@ -13112,10 +13121,10 @@
         <v>288</v>
       </c>
       <c r="D196" s="11" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="197" spans="1:77" s="9" customFormat="1">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="197" spans="1:77" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A197" s="9" t="s">
         <v>289</v>
       </c>
@@ -13126,7 +13135,7 @@
         <v>290</v>
       </c>
       <c r="D197" s="9" t="s">
-        <v>708</v>
+        <v>717</v>
       </c>
       <c r="E197" s="8"/>
       <c r="F197" s="8"/>
@@ -13138,7 +13147,7 @@
       <c r="L197" s="8"/>
       <c r="M197" s="8"/>
     </row>
-    <row r="198" spans="1:77" hidden="1">
+    <row r="198" spans="1:77" hidden="1" x14ac:dyDescent="0.15">
       <c r="A198" s="12" t="s">
         <v>291</v>
       </c>
@@ -13153,7 +13162,7 @@
       <c r="F198" s="12"/>
       <c r="G198" s="12"/>
     </row>
-    <row r="199" spans="1:77" hidden="1">
+    <row r="199" spans="1:77" hidden="1" x14ac:dyDescent="0.15">
       <c r="A199" s="12" t="s">
         <v>292</v>
       </c>
@@ -13168,7 +13177,7 @@
       <c r="F199" s="12"/>
       <c r="G199" s="12"/>
     </row>
-    <row r="200" spans="1:77" hidden="1">
+    <row r="200" spans="1:77" hidden="1" x14ac:dyDescent="0.15">
       <c r="A200" s="12" t="s">
         <v>293</v>
       </c>
@@ -13183,7 +13192,7 @@
       <c r="F200" s="12"/>
       <c r="G200" s="12"/>
     </row>
-    <row r="201" spans="1:77">
+    <row r="201" spans="1:77" x14ac:dyDescent="0.15">
       <c r="A201" s="12" t="s">
         <v>294</v>
       </c>
@@ -13200,7 +13209,7 @@
       <c r="F201" s="12"/>
       <c r="G201" s="12"/>
     </row>
-    <row r="202" spans="1:77" hidden="1">
+    <row r="202" spans="1:77" hidden="1" x14ac:dyDescent="0.15">
       <c r="A202" s="12" t="s">
         <v>296</v>
       </c>
@@ -13215,7 +13224,7 @@
       <c r="F202" s="12"/>
       <c r="G202" s="12"/>
     </row>
-    <row r="203" spans="1:77" s="3" customFormat="1" hidden="1">
+    <row r="203" spans="1:77" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A203" s="15" t="s">
         <v>297</v>
       </c>
@@ -13300,7 +13309,7 @@
       <c r="BX203" s="15"/>
       <c r="BY203" s="15"/>
     </row>
-    <row r="204" spans="1:77" s="3" customFormat="1">
+    <row r="204" spans="1:77" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A204" s="15" t="s">
         <v>298</v>
       </c>
@@ -13387,7 +13396,7 @@
       <c r="BX204" s="15"/>
       <c r="BY204" s="15"/>
     </row>
-    <row r="205" spans="1:77" s="3" customFormat="1" hidden="1">
+    <row r="205" spans="1:77" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A205" s="15" t="s">
         <v>300</v>
       </c>
@@ -13472,7 +13481,7 @@
       <c r="BX205" s="15"/>
       <c r="BY205" s="15"/>
     </row>
-    <row r="206" spans="1:77" s="7" customFormat="1">
+    <row r="206" spans="1:77" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A206" s="13" t="s">
         <v>301</v>
       </c>
@@ -13559,7 +13568,7 @@
       <c r="BX206" s="13"/>
       <c r="BY206" s="13"/>
     </row>
-    <row r="207" spans="1:77" s="3" customFormat="1" hidden="1">
+    <row r="207" spans="1:77" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A207" s="15" t="s">
         <v>303</v>
       </c>
@@ -13644,7 +13653,7 @@
       <c r="BX207" s="15"/>
       <c r="BY207" s="15"/>
     </row>
-    <row r="208" spans="1:77">
+    <row r="208" spans="1:77" x14ac:dyDescent="0.15">
       <c r="A208" s="12" t="s">
         <v>304</v>
       </c>
@@ -13659,7 +13668,7 @@
       <c r="F208" s="12"/>
       <c r="G208" s="12"/>
     </row>
-    <row r="209" spans="1:77" s="2" customFormat="1" hidden="1">
+    <row r="209" spans="1:77" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A209" s="14" t="s">
         <v>306</v>
       </c>
@@ -13744,7 +13753,7 @@
       <c r="BX209" s="14"/>
       <c r="BY209" s="14"/>
     </row>
-    <row r="210" spans="1:77" s="2" customFormat="1">
+    <row r="210" spans="1:77" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A210" s="14" t="s">
         <v>307</v>
       </c>
@@ -13831,7 +13840,7 @@
       <c r="BX210" s="14"/>
       <c r="BY210" s="14"/>
     </row>
-    <row r="211" spans="1:77" s="3" customFormat="1" hidden="1">
+    <row r="211" spans="1:77" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A211" s="15" t="s">
         <v>309</v>
       </c>
@@ -13916,7 +13925,7 @@
       <c r="BX211" s="15"/>
       <c r="BY211" s="15"/>
     </row>
-    <row r="212" spans="1:77" s="3" customFormat="1">
+    <row r="212" spans="1:77" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A212" s="15" t="s">
         <v>310</v>
       </c>
@@ -14001,7 +14010,7 @@
       <c r="BX212" s="15"/>
       <c r="BY212" s="15"/>
     </row>
-    <row r="213" spans="1:77" s="3" customFormat="1" hidden="1">
+    <row r="213" spans="1:77" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A213" s="15" t="s">
         <v>312</v>
       </c>
@@ -14086,7 +14095,7 @@
       <c r="BX213" s="15"/>
       <c r="BY213" s="15"/>
     </row>
-    <row r="214" spans="1:77" s="7" customFormat="1" hidden="1">
+    <row r="214" spans="1:77" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A214" s="13" t="s">
         <v>313</v>
       </c>
@@ -14173,7 +14182,7 @@
       <c r="BX214" s="13"/>
       <c r="BY214" s="13"/>
     </row>
-    <row r="215" spans="1:77" customFormat="1" hidden="1">
+    <row r="215" spans="1:77" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A215" s="11" t="s">
         <v>315</v>
       </c>
@@ -14258,7 +14267,7 @@
       <c r="BX215" s="8"/>
       <c r="BY215" s="8"/>
     </row>
-    <row r="216" spans="1:77" s="16" customFormat="1">
+    <row r="216" spans="1:77" s="16" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A216" s="11" t="s">
         <v>316</v>
       </c>
@@ -14269,7 +14278,7 @@
         <v>317</v>
       </c>
       <c r="D216" s="11" t="s">
-        <v>708</v>
+        <v>717</v>
       </c>
       <c r="E216" s="8"/>
       <c r="F216" s="8"/>
@@ -14345,7 +14354,7 @@
       <c r="BX216" s="8"/>
       <c r="BY216" s="8"/>
     </row>
-    <row r="217" spans="1:77" customFormat="1" hidden="1">
+    <row r="217" spans="1:77" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A217" s="11" t="s">
         <v>318</v>
       </c>
@@ -14430,7 +14439,7 @@
       <c r="BX217" s="8"/>
       <c r="BY217" s="8"/>
     </row>
-    <row r="218" spans="1:77" s="3" customFormat="1" hidden="1">
+    <row r="218" spans="1:77" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A218" s="15" t="s">
         <v>319</v>
       </c>
@@ -14515,7 +14524,7 @@
       <c r="BX218" s="15"/>
       <c r="BY218" s="15"/>
     </row>
-    <row r="219" spans="1:77" customFormat="1">
+    <row r="219" spans="1:77" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A219" s="11" t="s">
         <v>320</v>
       </c>
@@ -14526,7 +14535,7 @@
         <v>321</v>
       </c>
       <c r="D219" s="11" t="s">
-        <v>708</v>
+        <v>717</v>
       </c>
       <c r="E219" s="8"/>
       <c r="F219" s="8"/>
@@ -14602,7 +14611,7 @@
       <c r="BX219" s="8"/>
       <c r="BY219" s="8"/>
     </row>
-    <row r="220" spans="1:77" s="1" customFormat="1" hidden="1">
+    <row r="220" spans="1:77" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A220" s="9" t="s">
         <v>322</v>
       </c>
@@ -14687,7 +14696,7 @@
       <c r="BX220" s="9"/>
       <c r="BY220" s="9"/>
     </row>
-    <row r="221" spans="1:77" customFormat="1" hidden="1">
+    <row r="221" spans="1:77" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A221" s="11" t="s">
         <v>323</v>
       </c>
@@ -14772,7 +14781,7 @@
       <c r="BX221" s="8"/>
       <c r="BY221" s="8"/>
     </row>
-    <row r="222" spans="1:77" s="1" customFormat="1">
+    <row r="222" spans="1:77" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A222" s="9" t="s">
         <v>325</v>
       </c>
@@ -14783,7 +14792,7 @@
         <v>326</v>
       </c>
       <c r="D222" s="9" t="s">
-        <v>708</v>
+        <v>717</v>
       </c>
       <c r="E222" s="9"/>
       <c r="F222" s="9"/>
@@ -14859,7 +14868,7 @@
       <c r="BX222" s="9"/>
       <c r="BY222" s="9"/>
     </row>
-    <row r="223" spans="1:77" s="16" customFormat="1" hidden="1">
+    <row r="223" spans="1:77" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A223" s="11" t="s">
         <v>327</v>
       </c>
@@ -14944,7 +14953,7 @@
       <c r="BX223" s="8"/>
       <c r="BY223" s="8"/>
     </row>
-    <row r="224" spans="1:77" s="16" customFormat="1" hidden="1">
+    <row r="224" spans="1:77" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A224" s="11" t="s">
         <v>328</v>
       </c>
@@ -15029,7 +15038,7 @@
       <c r="BX224" s="8"/>
       <c r="BY224" s="8"/>
     </row>
-    <row r="225" spans="1:77" s="16" customFormat="1" hidden="1">
+    <row r="225" spans="1:77" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A225" s="11" t="s">
         <v>329</v>
       </c>
@@ -15114,7 +15123,7 @@
       <c r="BX225" s="8"/>
       <c r="BY225" s="8"/>
     </row>
-    <row r="226" spans="1:77" customFormat="1" hidden="1">
+    <row r="226" spans="1:77" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A226" s="11" t="s">
         <v>330</v>
       </c>
@@ -15199,7 +15208,7 @@
       <c r="BX226" s="8"/>
       <c r="BY226" s="8"/>
     </row>
-    <row r="227" spans="1:77" s="1" customFormat="1" hidden="1">
+    <row r="227" spans="1:77" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A227" s="9" t="s">
         <v>331</v>
       </c>
@@ -15284,7 +15293,7 @@
       <c r="BX227" s="9"/>
       <c r="BY227" s="9"/>
     </row>
-    <row r="228" spans="1:77" customFormat="1" hidden="1">
+    <row r="228" spans="1:77" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A228" s="11" t="s">
         <v>332</v>
       </c>
@@ -15369,7 +15378,7 @@
       <c r="BX228" s="8"/>
       <c r="BY228" s="8"/>
     </row>
-    <row r="229" spans="1:77" s="1" customFormat="1">
+    <row r="229" spans="1:77" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A229" s="9" t="s">
         <v>333</v>
       </c>
@@ -15380,7 +15389,7 @@
         <v>334</v>
       </c>
       <c r="D229" s="9" t="s">
-        <v>708</v>
+        <v>717</v>
       </c>
       <c r="E229" s="9"/>
       <c r="F229" s="9"/>
@@ -15456,7 +15465,7 @@
       <c r="BX229" s="9"/>
       <c r="BY229" s="9"/>
     </row>
-    <row r="230" spans="1:77" s="16" customFormat="1">
+    <row r="230" spans="1:77" s="16" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A230" s="11" t="s">
         <v>335</v>
       </c>
@@ -15467,7 +15476,7 @@
         <v>336</v>
       </c>
       <c r="D230" s="11" t="s">
-        <v>708</v>
+        <v>717</v>
       </c>
       <c r="E230" s="8"/>
       <c r="F230" s="8"/>
@@ -15543,7 +15552,7 @@
       <c r="BX230" s="8"/>
       <c r="BY230" s="8"/>
     </row>
-    <row r="231" spans="1:77" s="1" customFormat="1" hidden="1">
+    <row r="231" spans="1:77" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A231" s="9" t="s">
         <v>337</v>
       </c>
@@ -15628,7 +15637,7 @@
       <c r="BX231" s="9"/>
       <c r="BY231" s="9"/>
     </row>
-    <row r="232" spans="1:77" customFormat="1" hidden="1">
+    <row r="232" spans="1:77" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A232" s="11" t="s">
         <v>338</v>
       </c>
@@ -15715,7 +15724,7 @@
       <c r="BX232" s="8"/>
       <c r="BY232" s="8"/>
     </row>
-    <row r="233" spans="1:77" customFormat="1" hidden="1">
+    <row r="233" spans="1:77" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A233" s="11" t="s">
         <v>340</v>
       </c>
@@ -15802,7 +15811,7 @@
       <c r="BX233" s="8"/>
       <c r="BY233" s="8"/>
     </row>
-    <row r="234" spans="1:77" customFormat="1" hidden="1">
+    <row r="234" spans="1:77" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A234" s="11" t="s">
         <v>342</v>
       </c>
@@ -15889,7 +15898,7 @@
       <c r="BX234" s="8"/>
       <c r="BY234" s="8"/>
     </row>
-    <row r="235" spans="1:77" customFormat="1" hidden="1">
+    <row r="235" spans="1:77" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A235" s="11" t="s">
         <v>344</v>
       </c>
@@ -15976,7 +15985,7 @@
       <c r="BX235" s="8"/>
       <c r="BY235" s="8"/>
     </row>
-    <row r="236" spans="1:77" customFormat="1" hidden="1">
+    <row r="236" spans="1:77" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A236" s="11" t="s">
         <v>346</v>
       </c>
@@ -16063,7 +16072,7 @@
       <c r="BX236" s="8"/>
       <c r="BY236" s="8"/>
     </row>
-    <row r="237" spans="1:77" customFormat="1" hidden="1">
+    <row r="237" spans="1:77" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A237" s="11" t="s">
         <v>348</v>
       </c>
@@ -16150,7 +16159,7 @@
       <c r="BX237" s="8"/>
       <c r="BY237" s="8"/>
     </row>
-    <row r="238" spans="1:77" customFormat="1" hidden="1">
+    <row r="238" spans="1:77" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A238" s="11" t="s">
         <v>350</v>
       </c>
@@ -16237,7 +16246,7 @@
       <c r="BX238" s="8"/>
       <c r="BY238" s="8"/>
     </row>
-    <row r="239" spans="1:77" customFormat="1" hidden="1">
+    <row r="239" spans="1:77" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A239" s="11" t="s">
         <v>352</v>
       </c>
@@ -16324,7 +16333,7 @@
       <c r="BX239" s="8"/>
       <c r="BY239" s="8"/>
     </row>
-    <row r="240" spans="1:77" customFormat="1" hidden="1">
+    <row r="240" spans="1:77" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A240" s="11" t="s">
         <v>354</v>
       </c>
@@ -16411,7 +16420,7 @@
       <c r="BX240" s="8"/>
       <c r="BY240" s="8"/>
     </row>
-    <row r="241" spans="1:77" customFormat="1" hidden="1">
+    <row r="241" spans="1:77" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A241" s="11" t="s">
         <v>356</v>
       </c>
@@ -16498,7 +16507,7 @@
       <c r="BX241" s="8"/>
       <c r="BY241" s="8"/>
     </row>
-    <row r="242" spans="1:77" customFormat="1" hidden="1">
+    <row r="242" spans="1:77" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A242" s="11" t="s">
         <v>358</v>
       </c>
@@ -16585,7 +16594,7 @@
       <c r="BX242" s="8"/>
       <c r="BY242" s="8"/>
     </row>
-    <row r="243" spans="1:77" customFormat="1" hidden="1">
+    <row r="243" spans="1:77" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A243" s="11" t="s">
         <v>360</v>
       </c>
@@ -16672,7 +16681,7 @@
       <c r="BX243" s="8"/>
       <c r="BY243" s="8"/>
     </row>
-    <row r="244" spans="1:77" s="1" customFormat="1" hidden="1">
+    <row r="244" spans="1:77" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A244" s="9" t="s">
         <v>362</v>
       </c>
@@ -16757,7 +16766,7 @@
       <c r="BX244" s="9"/>
       <c r="BY244" s="9"/>
     </row>
-    <row r="245" spans="1:77" s="6" customFormat="1">
+    <row r="245" spans="1:77" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A245" s="9" t="s">
         <v>363</v>
       </c>
@@ -16768,7 +16777,7 @@
         <v>364</v>
       </c>
       <c r="D245" s="9" t="s">
-        <v>708</v>
+        <v>717</v>
       </c>
       <c r="E245" s="9"/>
       <c r="F245" s="9"/>
@@ -16844,7 +16853,7 @@
       <c r="BX245" s="9"/>
       <c r="BY245" s="9"/>
     </row>
-    <row r="246" spans="1:77" s="1" customFormat="1" hidden="1">
+    <row r="246" spans="1:77" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A246" s="9" t="s">
         <v>365</v>
       </c>
@@ -16929,7 +16938,7 @@
       <c r="BX246" s="9"/>
       <c r="BY246" s="9"/>
     </row>
-    <row r="247" spans="1:77" s="6" customFormat="1">
+    <row r="247" spans="1:77" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A247" s="9" t="s">
         <v>366</v>
       </c>
@@ -16940,7 +16949,7 @@
         <v>367</v>
       </c>
       <c r="D247" s="9" t="s">
-        <v>708</v>
+        <v>717</v>
       </c>
       <c r="E247" s="9"/>
       <c r="F247" s="9"/>
@@ -17016,7 +17025,7 @@
       <c r="BX247" s="9"/>
       <c r="BY247" s="9"/>
     </row>
-    <row r="248" spans="1:77" s="1" customFormat="1" hidden="1">
+    <row r="248" spans="1:77" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A248" s="9" t="s">
         <v>368</v>
       </c>
@@ -17101,7 +17110,7 @@
       <c r="BX248" s="9"/>
       <c r="BY248" s="9"/>
     </row>
-    <row r="249" spans="1:77" customFormat="1" hidden="1">
+    <row r="249" spans="1:77" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A249" s="11" t="s">
         <v>369</v>
       </c>
@@ -17186,7 +17195,7 @@
       <c r="BX249" s="8"/>
       <c r="BY249" s="8"/>
     </row>
-    <row r="250" spans="1:77" s="1" customFormat="1" hidden="1">
+    <row r="250" spans="1:77" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A250" s="9" t="s">
         <v>370</v>
       </c>
@@ -17271,7 +17280,7 @@
       <c r="BX250" s="9"/>
       <c r="BY250" s="9"/>
     </row>
-    <row r="251" spans="1:77" customFormat="1">
+    <row r="251" spans="1:77" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A251" s="11" t="s">
         <v>371</v>
       </c>
@@ -17282,7 +17291,7 @@
         <v>372</v>
       </c>
       <c r="D251" s="11" t="s">
-        <v>708</v>
+        <v>717</v>
       </c>
       <c r="E251" s="8"/>
       <c r="F251" s="8"/>
@@ -17358,7 +17367,7 @@
       <c r="BX251" s="8"/>
       <c r="BY251" s="8"/>
     </row>
-    <row r="252" spans="1:77" s="1" customFormat="1" hidden="1">
+    <row r="252" spans="1:77" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A252" s="9" t="s">
         <v>373</v>
       </c>
@@ -17443,7 +17452,7 @@
       <c r="BX252" s="9"/>
       <c r="BY252" s="9"/>
     </row>
-    <row r="253" spans="1:77" s="1" customFormat="1">
+    <row r="253" spans="1:77" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A253" s="9" t="s">
         <v>374</v>
       </c>
@@ -17528,7 +17537,7 @@
       <c r="BX253" s="9"/>
       <c r="BY253" s="9"/>
     </row>
-    <row r="254" spans="1:77" s="1" customFormat="1" hidden="1">
+    <row r="254" spans="1:77" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A254" s="9" t="s">
         <v>376</v>
       </c>
@@ -17613,7 +17622,7 @@
       <c r="BX254" s="9"/>
       <c r="BY254" s="9"/>
     </row>
-    <row r="255" spans="1:77" s="1" customFormat="1" hidden="1">
+    <row r="255" spans="1:77" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A255" s="9" t="s">
         <v>377</v>
       </c>
@@ -17698,7 +17707,7 @@
       <c r="BX255" s="9"/>
       <c r="BY255" s="9"/>
     </row>
-    <row r="256" spans="1:77" s="1" customFormat="1" hidden="1">
+    <row r="256" spans="1:77" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A256" s="9" t="s">
         <v>378</v>
       </c>
@@ -17783,7 +17792,7 @@
       <c r="BX256" s="9"/>
       <c r="BY256" s="9"/>
     </row>
-    <row r="257" spans="1:77" s="10" customFormat="1">
+    <row r="257" spans="1:77" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A257" s="9" t="s">
         <v>379</v>
       </c>
@@ -17794,7 +17803,7 @@
         <v>380</v>
       </c>
       <c r="D257" s="9" t="s">
-        <v>708</v>
+        <v>717</v>
       </c>
       <c r="E257" s="9"/>
       <c r="F257" s="9"/>
@@ -17870,7 +17879,7 @@
       <c r="BX257" s="9"/>
       <c r="BY257" s="9"/>
     </row>
-    <row r="258" spans="1:77" s="1" customFormat="1" hidden="1">
+    <row r="258" spans="1:77" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A258" s="9" t="s">
         <v>381</v>
       </c>
@@ -17955,7 +17964,7 @@
       <c r="BX258" s="9"/>
       <c r="BY258" s="9"/>
     </row>
-    <row r="259" spans="1:77" customFormat="1" hidden="1">
+    <row r="259" spans="1:77" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A259" s="11" t="s">
         <v>382</v>
       </c>
@@ -18040,7 +18049,7 @@
       <c r="BX259" s="8"/>
       <c r="BY259" s="8"/>
     </row>
-    <row r="260" spans="1:77" s="1" customFormat="1" hidden="1">
+    <row r="260" spans="1:77" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A260" s="9" t="s">
         <v>383</v>
       </c>
@@ -18125,7 +18134,7 @@
       <c r="BX260" s="9"/>
       <c r="BY260" s="9"/>
     </row>
-    <row r="261" spans="1:77" customFormat="1">
+    <row r="261" spans="1:77" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A261" s="11" t="s">
         <v>384</v>
       </c>
@@ -18136,7 +18145,7 @@
         <v>705</v>
       </c>
       <c r="D261" s="11" t="s">
-        <v>708</v>
+        <v>717</v>
       </c>
       <c r="E261" s="8"/>
       <c r="F261" s="8"/>
@@ -18212,7 +18221,7 @@
       <c r="BX261" s="8"/>
       <c r="BY261" s="8"/>
     </row>
-    <row r="262" spans="1:77" s="1" customFormat="1" hidden="1">
+    <row r="262" spans="1:77" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A262" s="9" t="s">
         <v>385</v>
       </c>
@@ -18297,7 +18306,7 @@
       <c r="BX262" s="9"/>
       <c r="BY262" s="9"/>
     </row>
-    <row r="263" spans="1:77" customFormat="1" hidden="1">
+    <row r="263" spans="1:77" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A263" s="11" t="s">
         <v>386</v>
       </c>
@@ -18382,7 +18391,7 @@
       <c r="BX263" s="8"/>
       <c r="BY263" s="8"/>
     </row>
-    <row r="264" spans="1:77" s="10" customFormat="1">
+    <row r="264" spans="1:77" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A264" s="9" t="s">
         <v>387</v>
       </c>
@@ -18393,7 +18402,7 @@
         <v>388</v>
       </c>
       <c r="D264" s="9" t="s">
-        <v>708</v>
+        <v>717</v>
       </c>
       <c r="E264" s="9"/>
       <c r="F264" s="9"/>
@@ -18469,7 +18478,7 @@
       <c r="BX264" s="9"/>
       <c r="BY264" s="9"/>
     </row>
-    <row r="265" spans="1:77" s="1" customFormat="1" hidden="1">
+    <row r="265" spans="1:77" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A265" s="9" t="s">
         <v>389</v>
       </c>
@@ -18554,7 +18563,7 @@
       <c r="BX265" s="9"/>
       <c r="BY265" s="9"/>
     </row>
-    <row r="266" spans="1:77" customFormat="1" hidden="1">
+    <row r="266" spans="1:77" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A266" s="11" t="s">
         <v>390</v>
       </c>
@@ -18639,7 +18648,7 @@
       <c r="BX266" s="8"/>
       <c r="BY266" s="8"/>
     </row>
-    <row r="267" spans="1:77" customFormat="1" hidden="1">
+    <row r="267" spans="1:77" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A267" s="11" t="s">
         <v>391</v>
       </c>
@@ -18724,7 +18733,7 @@
       <c r="BX267" s="8"/>
       <c r="BY267" s="8"/>
     </row>
-    <row r="268" spans="1:77" s="10" customFormat="1">
+    <row r="268" spans="1:77" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A268" s="9" t="s">
         <v>392</v>
       </c>
@@ -18735,7 +18744,7 @@
         <v>393</v>
       </c>
       <c r="D268" s="9" t="s">
-        <v>708</v>
+        <v>717</v>
       </c>
       <c r="E268" s="9"/>
       <c r="F268" s="9"/>
@@ -18811,7 +18820,7 @@
       <c r="BX268" s="9"/>
       <c r="BY268" s="9"/>
     </row>
-    <row r="269" spans="1:77" customFormat="1">
+    <row r="269" spans="1:77" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A269" s="11" t="s">
         <v>394</v>
       </c>
@@ -18822,7 +18831,7 @@
         <v>395</v>
       </c>
       <c r="D269" s="11" t="s">
-        <v>708</v>
+        <v>717</v>
       </c>
       <c r="E269" s="8"/>
       <c r="F269" s="8"/>
@@ -18898,7 +18907,7 @@
       <c r="BX269" s="8"/>
       <c r="BY269" s="8"/>
     </row>
-    <row r="270" spans="1:77" s="1" customFormat="1" hidden="1">
+    <row r="270" spans="1:77" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A270" s="9" t="s">
         <v>396</v>
       </c>
@@ -18983,7 +18992,7 @@
       <c r="BX270" s="9"/>
       <c r="BY270" s="9"/>
     </row>
-    <row r="271" spans="1:77" hidden="1">
+    <row r="271" spans="1:77" hidden="1" x14ac:dyDescent="0.15">
       <c r="A271" s="12" t="s">
         <v>397</v>
       </c>
@@ -18998,7 +19007,7 @@
       <c r="F271" s="12"/>
       <c r="G271" s="12"/>
     </row>
-    <row r="272" spans="1:77" customFormat="1" hidden="1">
+    <row r="272" spans="1:77" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A272" s="11" t="s">
         <v>398</v>
       </c>
@@ -19083,7 +19092,7 @@
       <c r="BX272" s="8"/>
       <c r="BY272" s="8"/>
     </row>
-    <row r="273" spans="1:77" s="1" customFormat="1">
+    <row r="273" spans="1:77" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A273" s="9" t="s">
         <v>399</v>
       </c>
@@ -19094,7 +19103,7 @@
         <v>400</v>
       </c>
       <c r="D273" s="9" t="s">
-        <v>708</v>
+        <v>717</v>
       </c>
       <c r="E273" s="9"/>
       <c r="F273" s="9"/>
@@ -19170,7 +19179,7 @@
       <c r="BX273" s="9"/>
       <c r="BY273" s="9"/>
     </row>
-    <row r="274" spans="1:77" customFormat="1">
+    <row r="274" spans="1:77" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A274" s="11" t="s">
         <v>401</v>
       </c>
@@ -19181,7 +19190,7 @@
         <v>402</v>
       </c>
       <c r="D274" s="11" t="s">
-        <v>708</v>
+        <v>717</v>
       </c>
       <c r="E274" s="11"/>
       <c r="F274" s="11"/>
@@ -19257,7 +19266,7 @@
       <c r="BX274" s="8"/>
       <c r="BY274" s="8"/>
     </row>
-    <row r="275" spans="1:77" hidden="1">
+    <row r="275" spans="1:77" hidden="1" x14ac:dyDescent="0.15">
       <c r="A275" s="12" t="s">
         <v>403</v>
       </c>
@@ -19272,7 +19281,7 @@
       <c r="F275" s="12"/>
       <c r="G275" s="12"/>
     </row>
-    <row r="276" spans="1:77">
+    <row r="276" spans="1:77" x14ac:dyDescent="0.15">
       <c r="A276" s="12" t="s">
         <v>404</v>
       </c>
@@ -19289,7 +19298,7 @@
       <c r="F276" s="12"/>
       <c r="G276" s="12"/>
     </row>
-    <row r="277" spans="1:77" s="2" customFormat="1" hidden="1">
+    <row r="277" spans="1:77" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A277" s="14" t="s">
         <v>406</v>
       </c>
@@ -19374,7 +19383,7 @@
       <c r="BX277" s="14"/>
       <c r="BY277" s="14"/>
     </row>
-    <row r="278" spans="1:77" customFormat="1" hidden="1">
+    <row r="278" spans="1:77" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A278" s="11" t="s">
         <v>407</v>
       </c>
@@ -19459,7 +19468,7 @@
       <c r="BX278" s="8"/>
       <c r="BY278" s="8"/>
     </row>
-    <row r="279" spans="1:77" s="1" customFormat="1" hidden="1">
+    <row r="279" spans="1:77" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A279" s="9" t="s">
         <v>408</v>
       </c>
@@ -19544,7 +19553,7 @@
       <c r="BX279" s="9"/>
       <c r="BY279" s="9"/>
     </row>
-    <row r="280" spans="1:77" customFormat="1">
+    <row r="280" spans="1:77" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A280" s="11" t="s">
         <v>409</v>
       </c>
@@ -19555,7 +19564,7 @@
         <v>410</v>
       </c>
       <c r="D280" s="11" t="s">
-        <v>708</v>
+        <v>717</v>
       </c>
       <c r="E280" s="8"/>
       <c r="F280" s="8"/>
@@ -19631,7 +19640,7 @@
       <c r="BX280" s="8"/>
       <c r="BY280" s="8"/>
     </row>
-    <row r="281" spans="1:77" s="2" customFormat="1" ht="17.25" hidden="1" customHeight="1">
+    <row r="281" spans="1:77" s="2" customFormat="1" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A281" s="14" t="s">
         <v>411</v>
       </c>
@@ -19716,7 +19725,7 @@
       <c r="BX281" s="14"/>
       <c r="BY281" s="14"/>
     </row>
-    <row r="282" spans="1:77" s="8" customFormat="1" hidden="1">
+    <row r="282" spans="1:77" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A282" s="11" t="s">
         <v>412</v>
       </c>
@@ -19728,7 +19737,7 @@
       </c>
       <c r="D282" s="11"/>
     </row>
-    <row r="283" spans="1:77" s="9" customFormat="1">
+    <row r="283" spans="1:77" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A283" s="9" t="s">
         <v>413</v>
       </c>
@@ -19739,10 +19748,10 @@
         <v>414</v>
       </c>
       <c r="D283" s="9" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="284" spans="1:77" s="8" customFormat="1">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="284" spans="1:77" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A284" s="11" t="s">
         <v>415</v>
       </c>
@@ -19754,7 +19763,7 @@
       </c>
       <c r="D284" s="11"/>
     </row>
-    <row r="285" spans="1:77" s="9" customFormat="1" hidden="1">
+    <row r="285" spans="1:77" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A285" s="9" t="s">
         <v>417</v>
       </c>
@@ -19765,7 +19774,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="286" spans="1:77" s="9" customFormat="1">
+    <row r="286" spans="1:77" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A286" s="9" t="s">
         <v>418</v>
       </c>
@@ -19776,7 +19785,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="287" spans="1:77" s="8" customFormat="1" hidden="1">
+    <row r="287" spans="1:77" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A287" s="11" t="s">
         <v>420</v>
       </c>
@@ -19788,7 +19797,7 @@
       </c>
       <c r="D287" s="11"/>
     </row>
-    <row r="288" spans="1:77" s="9" customFormat="1" hidden="1">
+    <row r="288" spans="1:77" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A288" s="9" t="s">
         <v>421</v>
       </c>
@@ -19799,7 +19808,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="289" spans="1:77" s="9" customFormat="1">
+    <row r="289" spans="1:77" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A289" s="9" t="s">
         <v>422</v>
       </c>
@@ -19810,7 +19819,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="290" spans="1:77" s="8" customFormat="1" hidden="1">
+    <row r="290" spans="1:77" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A290" s="11" t="s">
         <v>424</v>
       </c>
@@ -19822,7 +19831,7 @@
       </c>
       <c r="D290" s="11"/>
     </row>
-    <row r="291" spans="1:77" s="8" customFormat="1" hidden="1">
+    <row r="291" spans="1:77" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A291" s="11" t="s">
         <v>425</v>
       </c>
@@ -19834,7 +19843,7 @@
       </c>
       <c r="D291" s="11"/>
     </row>
-    <row r="292" spans="1:77" s="8" customFormat="1" hidden="1">
+    <row r="292" spans="1:77" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A292" s="11" t="s">
         <v>426</v>
       </c>
@@ -19846,7 +19855,7 @@
       </c>
       <c r="D292" s="11"/>
     </row>
-    <row r="293" spans="1:77" customFormat="1">
+    <row r="293" spans="1:77" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A293" s="11" t="s">
         <v>427</v>
       </c>
@@ -19931,7 +19940,7 @@
       <c r="BX293" s="8"/>
       <c r="BY293" s="8"/>
     </row>
-    <row r="294" spans="1:77" s="1" customFormat="1" hidden="1">
+    <row r="294" spans="1:77" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A294" s="9" t="s">
         <v>429</v>
       </c>
@@ -20016,7 +20025,7 @@
       <c r="BX294" s="9"/>
       <c r="BY294" s="9"/>
     </row>
-    <row r="295" spans="1:77" s="1" customFormat="1">
+    <row r="295" spans="1:77" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A295" s="9" t="s">
         <v>430</v>
       </c>
@@ -20101,7 +20110,7 @@
       <c r="BX295" s="9"/>
       <c r="BY295" s="9"/>
     </row>
-    <row r="296" spans="1:77" s="1" customFormat="1" hidden="1">
+    <row r="296" spans="1:77" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A296" s="9" t="s">
         <v>432</v>
       </c>
@@ -20186,7 +20195,7 @@
       <c r="BX296" s="9"/>
       <c r="BY296" s="9"/>
     </row>
-    <row r="297" spans="1:77" customFormat="1" hidden="1">
+    <row r="297" spans="1:77" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A297" s="11" t="s">
         <v>433</v>
       </c>
@@ -20271,7 +20280,7 @@
       <c r="BX297" s="8"/>
       <c r="BY297" s="8"/>
     </row>
-    <row r="298" spans="1:77" s="2" customFormat="1" hidden="1">
+    <row r="298" spans="1:77" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A298" s="14" t="s">
         <v>434</v>
       </c>
@@ -20356,7 +20365,7 @@
       <c r="BX298" s="14"/>
       <c r="BY298" s="14"/>
     </row>
-    <row r="299" spans="1:77" customFormat="1">
+    <row r="299" spans="1:77" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A299" s="11" t="s">
         <v>435</v>
       </c>
@@ -20441,7 +20450,7 @@
       <c r="BX299" s="8"/>
       <c r="BY299" s="8"/>
     </row>
-    <row r="300" spans="1:77" s="2" customFormat="1">
+    <row r="300" spans="1:77" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A300" s="14" t="s">
         <v>437</v>
       </c>
@@ -20526,7 +20535,7 @@
       <c r="BX300" s="14"/>
       <c r="BY300" s="14"/>
     </row>
-    <row r="301" spans="1:77" s="1" customFormat="1" hidden="1">
+    <row r="301" spans="1:77" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A301" s="9" t="s">
         <v>439</v>
       </c>
@@ -20611,7 +20620,7 @@
       <c r="BX301" s="9"/>
       <c r="BY301" s="9"/>
     </row>
-    <row r="302" spans="1:77" customFormat="1" hidden="1">
+    <row r="302" spans="1:77" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A302" s="11" t="s">
         <v>440</v>
       </c>
@@ -20696,7 +20705,7 @@
       <c r="BX302" s="8"/>
       <c r="BY302" s="8"/>
     </row>
-    <row r="303" spans="1:77" s="1" customFormat="1">
+    <row r="303" spans="1:77" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A303" s="9" t="s">
         <v>441</v>
       </c>
@@ -20781,7 +20790,7 @@
       <c r="BX303" s="9"/>
       <c r="BY303" s="9"/>
     </row>
-    <row r="304" spans="1:77" customFormat="1">
+    <row r="304" spans="1:77" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A304" s="11" t="s">
         <v>443</v>
       </c>
@@ -20866,7 +20875,7 @@
       <c r="BX304" s="8"/>
       <c r="BY304" s="8"/>
     </row>
-    <row r="305" spans="1:77" s="3" customFormat="1" hidden="1">
+    <row r="305" spans="1:77" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A305" s="15" t="s">
         <v>445</v>
       </c>
@@ -20951,7 +20960,7 @@
       <c r="BX305" s="15"/>
       <c r="BY305" s="15"/>
     </row>
-    <row r="306" spans="1:77" hidden="1">
+    <row r="306" spans="1:77" hidden="1" x14ac:dyDescent="0.15">
       <c r="A306" s="12" t="s">
         <v>446</v>
       </c>
@@ -20966,7 +20975,7 @@
       <c r="F306" s="12"/>
       <c r="G306" s="12"/>
     </row>
-    <row r="307" spans="1:77" s="3" customFormat="1">
+    <row r="307" spans="1:77" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A307" s="15" t="s">
         <v>447</v>
       </c>
@@ -21051,7 +21060,7 @@
       <c r="BX307" s="15"/>
       <c r="BY307" s="15"/>
     </row>
-    <row r="308" spans="1:77" s="3" customFormat="1" hidden="1">
+    <row r="308" spans="1:77" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A308" s="15" t="s">
         <v>449</v>
       </c>
@@ -21136,7 +21145,7 @@
       <c r="BX308" s="15"/>
       <c r="BY308" s="15"/>
     </row>
-    <row r="309" spans="1:77" s="3" customFormat="1">
+    <row r="309" spans="1:77" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A309" s="15" t="s">
         <v>450</v>
       </c>
@@ -21221,7 +21230,7 @@
       <c r="BX309" s="15"/>
       <c r="BY309" s="15"/>
     </row>
-    <row r="310" spans="1:77" s="3" customFormat="1" hidden="1">
+    <row r="310" spans="1:77" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A310" s="15" t="s">
         <v>452</v>
       </c>
@@ -21306,7 +21315,7 @@
       <c r="BX310" s="15"/>
       <c r="BY310" s="15"/>
     </row>
-    <row r="311" spans="1:77" s="3" customFormat="1">
+    <row r="311" spans="1:77" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A311" s="15" t="s">
         <v>453</v>
       </c>
@@ -21391,7 +21400,7 @@
       <c r="BX311" s="15"/>
       <c r="BY311" s="15"/>
     </row>
-    <row r="312" spans="1:77" s="1" customFormat="1" hidden="1">
+    <row r="312" spans="1:77" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A312" s="9" t="s">
         <v>455</v>
       </c>
@@ -21476,7 +21485,7 @@
       <c r="BX312" s="9"/>
       <c r="BY312" s="9"/>
     </row>
-    <row r="313" spans="1:77" customFormat="1" hidden="1">
+    <row r="313" spans="1:77" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A313" s="11" t="s">
         <v>456</v>
       </c>
@@ -21561,7 +21570,7 @@
       <c r="BX313" s="8"/>
       <c r="BY313" s="8"/>
     </row>
-    <row r="314" spans="1:77" s="9" customFormat="1">
+    <row r="314" spans="1:77" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A314" s="9" t="s">
         <v>457</v>
       </c>
@@ -21572,10 +21581,10 @@
         <v>458</v>
       </c>
       <c r="D314" s="9" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="315" spans="1:77" s="8" customFormat="1">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="315" spans="1:77" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A315" s="11" t="s">
         <v>459</v>
       </c>
@@ -21586,10 +21595,10 @@
         <v>460</v>
       </c>
       <c r="D315" s="11" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="316" spans="1:77" s="8" customFormat="1" hidden="1">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="316" spans="1:77" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A316" s="11" t="s">
         <v>461</v>
       </c>
@@ -21601,7 +21610,7 @@
       </c>
       <c r="D316" s="11"/>
     </row>
-    <row r="317" spans="1:77" customFormat="1" hidden="1">
+    <row r="317" spans="1:77" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A317" s="11" t="s">
         <v>462</v>
       </c>
@@ -21686,7 +21695,7 @@
       <c r="BX317" s="8"/>
       <c r="BY317" s="8"/>
     </row>
-    <row r="318" spans="1:77" s="1" customFormat="1" hidden="1">
+    <row r="318" spans="1:77" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A318" s="9" t="s">
         <v>463</v>
       </c>
@@ -21771,7 +21780,7 @@
       <c r="BX318" s="9"/>
       <c r="BY318" s="9"/>
     </row>
-    <row r="319" spans="1:77" s="9" customFormat="1" hidden="1">
+    <row r="319" spans="1:77" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A319" s="9" t="s">
         <v>464</v>
       </c>
@@ -21782,7 +21791,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="320" spans="1:77" s="9" customFormat="1" hidden="1">
+    <row r="320" spans="1:77" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A320" s="9" t="s">
         <v>465</v>
       </c>
@@ -21793,7 +21802,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="321" spans="1:4" s="8" customFormat="1">
+    <row r="321" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A321" s="11" t="s">
         <v>466</v>
       </c>
@@ -21804,10 +21813,10 @@
         <v>467</v>
       </c>
       <c r="D321" s="11" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="322" spans="1:4" s="8" customFormat="1" hidden="1">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="322" spans="1:4" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A322" s="11" t="s">
         <v>468</v>
       </c>
@@ -21819,7 +21828,7 @@
       </c>
       <c r="D322" s="11"/>
     </row>
-    <row r="323" spans="1:4" s="8" customFormat="1">
+    <row r="323" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A323" s="11" t="s">
         <v>469</v>
       </c>
@@ -21830,10 +21839,10 @@
         <v>470</v>
       </c>
       <c r="D323" s="11" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="324" spans="1:4" s="9" customFormat="1">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="324" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A324" s="9" t="s">
         <v>471</v>
       </c>
@@ -21844,10 +21853,10 @@
         <v>472</v>
       </c>
       <c r="D324" s="9" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="325" spans="1:4" s="9" customFormat="1" hidden="1">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="325" spans="1:4" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A325" s="9" t="s">
         <v>473</v>
       </c>
@@ -21858,7 +21867,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="326" spans="1:4" s="12" customFormat="1" hidden="1">
+    <row r="326" spans="1:4" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A326" s="12" t="s">
         <v>474</v>
       </c>
@@ -21869,7 +21878,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="327" spans="1:4" s="9" customFormat="1">
+    <row r="327" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A327" s="9" t="s">
         <v>475</v>
       </c>
@@ -21880,7 +21889,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="328" spans="1:4" s="15" customFormat="1" hidden="1">
+    <row r="328" spans="1:4" s="15" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A328" s="15" t="s">
         <v>477</v>
       </c>
@@ -21891,7 +21900,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="329" spans="1:4" s="12" customFormat="1">
+    <row r="329" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A329" s="12" t="s">
         <v>478</v>
       </c>
@@ -21902,7 +21911,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="330" spans="1:4" s="9" customFormat="1" hidden="1">
+    <row r="330" spans="1:4" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A330" s="9" t="s">
         <v>480</v>
       </c>
@@ -21913,7 +21922,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="331" spans="1:4" s="9" customFormat="1" hidden="1">
+    <row r="331" spans="1:4" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A331" s="9" t="s">
         <v>481</v>
       </c>
@@ -21924,7 +21933,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="332" spans="1:4" s="15" customFormat="1" hidden="1">
+    <row r="332" spans="1:4" s="15" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A332" s="15" t="s">
         <v>482</v>
       </c>
@@ -21935,7 +21944,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="333" spans="1:4" s="15" customFormat="1">
+    <row r="333" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A333" s="15" t="s">
         <v>483</v>
       </c>
@@ -21946,7 +21955,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="334" spans="1:4" s="15" customFormat="1" hidden="1">
+    <row r="334" spans="1:4" s="15" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A334" s="15" t="s">
         <v>485</v>
       </c>
@@ -21957,7 +21966,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="335" spans="1:4" s="8" customFormat="1" hidden="1">
+    <row r="335" spans="1:4" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A335" s="11" t="s">
         <v>486</v>
       </c>
@@ -21969,7 +21978,7 @@
       </c>
       <c r="D335" s="11"/>
     </row>
-    <row r="336" spans="1:4" s="15" customFormat="1">
+    <row r="336" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A336" s="15" t="s">
         <v>487</v>
       </c>
@@ -21980,7 +21989,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="337" spans="1:6" s="8" customFormat="1">
+    <row r="337" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A337" s="11" t="s">
         <v>489</v>
       </c>
@@ -21991,12 +22000,12 @@
         <v>490</v>
       </c>
       <c r="D337" s="11" t="s">
-        <v>708</v>
+        <v>717</v>
       </c>
       <c r="E337" s="11"/>
       <c r="F337" s="11"/>
     </row>
-    <row r="338" spans="1:6" s="8" customFormat="1" hidden="1">
+    <row r="338" spans="1:6" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A338" s="11" t="s">
         <v>491</v>
       </c>
@@ -22008,7 +22017,7 @@
       </c>
       <c r="D338" s="11"/>
     </row>
-    <row r="339" spans="1:6" s="8" customFormat="1">
+    <row r="339" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A339" s="11" t="s">
         <v>492</v>
       </c>
@@ -22019,10 +22028,10 @@
         <v>493</v>
       </c>
       <c r="D339" s="11" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="340" spans="1:6" s="17" customFormat="1" ht="14.25" hidden="1">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="340" spans="1:6" s="17" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A340" s="17" t="s">
         <v>494</v>
       </c>
@@ -22033,7 +22042,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="341" spans="1:6" s="9" customFormat="1" hidden="1">
+    <row r="341" spans="1:6" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A341" s="9" t="s">
         <v>495</v>
       </c>
@@ -22044,7 +22053,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="342" spans="1:6" s="14" customFormat="1" hidden="1">
+    <row r="342" spans="1:6" s="14" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A342" s="14" t="s">
         <v>496</v>
       </c>
@@ -22055,7 +22064,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="343" spans="1:6" s="9" customFormat="1">
+    <row r="343" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A343" s="9" t="s">
         <v>497</v>
       </c>
@@ -22066,10 +22075,10 @@
         <v>706</v>
       </c>
       <c r="D343" s="9" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="344" spans="1:6" s="14" customFormat="1">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="344" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A344" s="14" t="s">
         <v>498</v>
       </c>
@@ -22080,7 +22089,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="345" spans="1:6" s="11" customFormat="1" hidden="1">
+    <row r="345" spans="1:6" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A345" s="11" t="s">
         <v>501</v>
       </c>
@@ -22094,7 +22103,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="346" spans="1:6" s="9" customFormat="1" hidden="1">
+    <row r="346" spans="1:6" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A346" s="9" t="s">
         <v>502</v>
       </c>
@@ -22105,7 +22114,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="347" spans="1:6" s="8" customFormat="1" hidden="1">
+    <row r="347" spans="1:6" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A347" s="11" t="s">
         <v>503</v>
       </c>
@@ -22119,7 +22128,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="348" spans="1:6" s="9" customFormat="1" hidden="1">
+    <row r="348" spans="1:6" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A348" s="9" t="s">
         <v>505</v>
       </c>
@@ -22131,7 +22140,7 @@
       </c>
       <c r="D348" s="11"/>
     </row>
-    <row r="349" spans="1:6" s="8" customFormat="1" hidden="1">
+    <row r="349" spans="1:6" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A349" s="11" t="s">
         <v>506</v>
       </c>
@@ -22145,7 +22154,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="350" spans="1:6" s="8" customFormat="1" hidden="1">
+    <row r="350" spans="1:6" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A350" s="11" t="s">
         <v>508</v>
       </c>
@@ -22159,7 +22168,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="351" spans="1:6" s="12" customFormat="1" hidden="1">
+    <row r="351" spans="1:6" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A351" s="12" t="s">
         <v>509</v>
       </c>
@@ -22170,7 +22179,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="352" spans="1:6" s="9" customFormat="1" hidden="1">
+    <row r="352" spans="1:6" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A352" s="9" t="s">
         <v>510</v>
       </c>
@@ -22181,7 +22190,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="353" spans="1:77" s="9" customFormat="1">
+    <row r="353" spans="1:77" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A353" s="9" t="s">
         <v>511</v>
       </c>
@@ -22192,10 +22201,10 @@
         <v>512</v>
       </c>
       <c r="D353" s="9" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="354" spans="1:77" s="8" customFormat="1" hidden="1">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="354" spans="1:77" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A354" s="11" t="s">
         <v>513</v>
       </c>
@@ -22207,7 +22216,7 @@
       </c>
       <c r="D354" s="11"/>
     </row>
-    <row r="355" spans="1:77" s="8" customFormat="1">
+    <row r="355" spans="1:77" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A355" s="11" t="s">
         <v>514</v>
       </c>
@@ -22218,7 +22227,7 @@
         <v>515</v>
       </c>
       <c r="D355" s="11" t="s">
-        <v>708</v>
+        <v>717</v>
       </c>
       <c r="E355" s="11"/>
       <c r="F355" s="11"/>
@@ -22228,7 +22237,7 @@
       <c r="J355" s="11"/>
       <c r="K355" s="11"/>
     </row>
-    <row r="356" spans="1:77" s="8" customFormat="1" hidden="1">
+    <row r="356" spans="1:77" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A356" s="11" t="s">
         <v>516</v>
       </c>
@@ -22240,7 +22249,7 @@
       </c>
       <c r="D356" s="11"/>
     </row>
-    <row r="357" spans="1:77" hidden="1">
+    <row r="357" spans="1:77" hidden="1" x14ac:dyDescent="0.15">
       <c r="A357" s="12" t="s">
         <v>517</v>
       </c>
@@ -22255,7 +22264,7 @@
       <c r="F357" s="12"/>
       <c r="G357" s="12"/>
     </row>
-    <row r="358" spans="1:77" s="2" customFormat="1" hidden="1">
+    <row r="358" spans="1:77" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A358" s="14" t="s">
         <v>518</v>
       </c>
@@ -22340,7 +22349,7 @@
       <c r="BX358" s="14"/>
       <c r="BY358" s="14"/>
     </row>
-    <row r="359" spans="1:77" s="1" customFormat="1" hidden="1">
+    <row r="359" spans="1:77" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A359" s="9" t="s">
         <v>519</v>
       </c>
@@ -22425,7 +22434,7 @@
       <c r="BX359" s="9"/>
       <c r="BY359" s="9"/>
     </row>
-    <row r="360" spans="1:77" s="9" customFormat="1" hidden="1">
+    <row r="360" spans="1:77" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A360" s="9" t="s">
         <v>520</v>
       </c>
@@ -22436,7 +22445,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="361" spans="1:77" s="8" customFormat="1" hidden="1">
+    <row r="361" spans="1:77" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A361" s="11" t="s">
         <v>521</v>
       </c>
@@ -22448,7 +22457,7 @@
       </c>
       <c r="D361" s="11"/>
     </row>
-    <row r="362" spans="1:77" s="8" customFormat="1" hidden="1">
+    <row r="362" spans="1:77" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A362" s="11" t="s">
         <v>522</v>
       </c>
@@ -22460,7 +22469,7 @@
       </c>
       <c r="D362" s="11"/>
     </row>
-    <row r="363" spans="1:77" s="12" customFormat="1">
+    <row r="363" spans="1:77" s="12" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A363" s="12" t="s">
         <v>523</v>
       </c>
@@ -22474,7 +22483,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="364" spans="1:77" s="8" customFormat="1">
+    <row r="364" spans="1:77" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A364" s="11" t="s">
         <v>525</v>
       </c>
@@ -22485,7 +22494,7 @@
         <v>526</v>
       </c>
       <c r="D364" s="11" t="s">
-        <v>708</v>
+        <v>717</v>
       </c>
       <c r="E364" s="11"/>
       <c r="F364" s="11"/>
@@ -22496,7 +22505,7 @@
       <c r="K364" s="11"/>
       <c r="L364" s="11"/>
     </row>
-    <row r="365" spans="1:77" s="15" customFormat="1" hidden="1">
+    <row r="365" spans="1:77" s="15" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A365" s="15" t="s">
         <v>527</v>
       </c>
@@ -22507,7 +22516,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="366" spans="1:77" s="14" customFormat="1">
+    <row r="366" spans="1:77" s="14" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A366" s="14" t="s">
         <v>528</v>
       </c>
@@ -22521,7 +22530,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="367" spans="1:77" s="12" customFormat="1" hidden="1">
+    <row r="367" spans="1:77" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A367" s="12" t="s">
         <v>530</v>
       </c>
@@ -22532,7 +22541,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="368" spans="1:77" s="15" customFormat="1" hidden="1">
+    <row r="368" spans="1:77" s="15" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A368" s="15" t="s">
         <v>532</v>
       </c>
@@ -22546,7 +22555,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="369" spans="1:77" s="8" customFormat="1" hidden="1">
+    <row r="369" spans="1:77" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A369" s="11" t="s">
         <v>534</v>
       </c>
@@ -22558,7 +22567,7 @@
       </c>
       <c r="D369" s="11"/>
     </row>
-    <row r="370" spans="1:77" s="9" customFormat="1" hidden="1">
+    <row r="370" spans="1:77" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A370" s="9" t="s">
         <v>535</v>
       </c>
@@ -22569,7 +22578,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="371" spans="1:77" s="8" customFormat="1">
+    <row r="371" spans="1:77" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A371" s="11" t="s">
         <v>536</v>
       </c>
@@ -22583,7 +22592,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="372" spans="1:77" s="9" customFormat="1" hidden="1">
+    <row r="372" spans="1:77" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A372" s="9" t="s">
         <v>538</v>
       </c>
@@ -22594,7 +22603,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="373" spans="1:77" s="15" customFormat="1" hidden="1">
+    <row r="373" spans="1:77" s="15" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A373" s="15" t="s">
         <v>539</v>
       </c>
@@ -22605,7 +22614,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="374" spans="1:77" s="15" customFormat="1">
+    <row r="374" spans="1:77" s="15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A374" s="15" t="s">
         <v>540</v>
       </c>
@@ -22619,7 +22628,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="375" spans="1:77" s="8" customFormat="1" hidden="1">
+    <row r="375" spans="1:77" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A375" s="11" t="s">
         <v>542</v>
       </c>
@@ -22631,7 +22640,7 @@
       </c>
       <c r="D375" s="11"/>
     </row>
-    <row r="376" spans="1:77" s="14" customFormat="1" hidden="1">
+    <row r="376" spans="1:77" s="14" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A376" s="14" t="s">
         <v>543</v>
       </c>
@@ -22642,7 +22651,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="377" spans="1:77" s="15" customFormat="1" hidden="1">
+    <row r="377" spans="1:77" s="15" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A377" s="15" t="s">
         <v>544</v>
       </c>
@@ -22653,7 +22662,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="378" spans="1:77" s="8" customFormat="1" hidden="1">
+    <row r="378" spans="1:77" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A378" s="11" t="s">
         <v>545</v>
       </c>
@@ -22665,7 +22674,7 @@
       </c>
       <c r="D378" s="11"/>
     </row>
-    <row r="379" spans="1:77" s="3" customFormat="1">
+    <row r="379" spans="1:77" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A379" s="15" t="s">
         <v>546</v>
       </c>
@@ -22752,7 +22761,7 @@
       <c r="BX379" s="15"/>
       <c r="BY379" s="15"/>
     </row>
-    <row r="380" spans="1:77" s="2" customFormat="1">
+    <row r="380" spans="1:77" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A380" s="14" t="s">
         <v>548</v>
       </c>
@@ -22839,7 +22848,7 @@
       <c r="BX380" s="14"/>
       <c r="BY380" s="14"/>
     </row>
-    <row r="381" spans="1:77" s="3" customFormat="1" hidden="1">
+    <row r="381" spans="1:77" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A381" s="15" t="s">
         <v>550</v>
       </c>
@@ -22924,7 +22933,7 @@
       <c r="BX381" s="15"/>
       <c r="BY381" s="15"/>
     </row>
-    <row r="382" spans="1:77" s="3" customFormat="1">
+    <row r="382" spans="1:77" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A382" s="15" t="s">
         <v>551</v>
       </c>
@@ -23011,7 +23020,7 @@
       <c r="BX382" s="15"/>
       <c r="BY382" s="15"/>
     </row>
-    <row r="383" spans="1:77" s="4" customFormat="1" ht="14.25" hidden="1">
+    <row r="383" spans="1:77" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A383" s="17" t="s">
         <v>552</v>
       </c>
@@ -23096,7 +23105,7 @@
       <c r="BX383" s="17"/>
       <c r="BY383" s="17"/>
     </row>
-    <row r="384" spans="1:77" s="4" customFormat="1" ht="14.25">
+    <row r="384" spans="1:77" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A384" s="17" t="s">
         <v>553</v>
       </c>
@@ -23181,7 +23190,7 @@
       <c r="BX384" s="17"/>
       <c r="BY384" s="17"/>
     </row>
-    <row r="385" spans="1:77" s="3" customFormat="1" hidden="1">
+    <row r="385" spans="1:77" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A385" s="15" t="s">
         <v>554</v>
       </c>
@@ -23266,7 +23275,7 @@
       <c r="BX385" s="15"/>
       <c r="BY385" s="15"/>
     </row>
-    <row r="386" spans="1:77" s="3" customFormat="1">
+    <row r="386" spans="1:77" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A386" s="15" t="s">
         <v>555</v>
       </c>
@@ -23352,7 +23361,7 @@
       <c r="BX386" s="15"/>
       <c r="BY386" s="15"/>
     </row>
-    <row r="387" spans="1:77" customFormat="1" hidden="1">
+    <row r="387" spans="1:77" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A387" s="11" t="s">
         <v>557</v>
       </c>
@@ -23437,7 +23446,7 @@
       <c r="BX387" s="8"/>
       <c r="BY387" s="8"/>
     </row>
-    <row r="388" spans="1:77" customFormat="1">
+    <row r="388" spans="1:77" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A388" s="11" t="s">
         <v>558</v>
       </c>
@@ -23522,7 +23531,7 @@
       <c r="BX388" s="8"/>
       <c r="BY388" s="8"/>
     </row>
-    <row r="389" spans="1:77" customFormat="1" hidden="1">
+    <row r="389" spans="1:77" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A389" s="11" t="s">
         <v>560</v>
       </c>
@@ -23607,7 +23616,7 @@
       <c r="BX389" s="8"/>
       <c r="BY389" s="8"/>
     </row>
-    <row r="390" spans="1:77" s="3" customFormat="1" hidden="1">
+    <row r="390" spans="1:77" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A390" s="15" t="s">
         <v>561</v>
       </c>
@@ -23692,7 +23701,7 @@
       <c r="BX390" s="15"/>
       <c r="BY390" s="15"/>
     </row>
-    <row r="391" spans="1:77" customFormat="1">
+    <row r="391" spans="1:77" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A391" s="11" t="s">
         <v>562</v>
       </c>
@@ -23779,7 +23788,7 @@
       <c r="BX391" s="8"/>
       <c r="BY391" s="8"/>
     </row>
-    <row r="392" spans="1:77" customFormat="1">
+    <row r="392" spans="1:77" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A392" s="11" t="s">
         <v>565</v>
       </c>
@@ -23790,7 +23799,7 @@
         <v>566</v>
       </c>
       <c r="D392" s="11" t="s">
-        <v>708</v>
+        <v>717</v>
       </c>
       <c r="E392" s="8"/>
       <c r="F392" s="8"/>
@@ -23866,7 +23875,7 @@
       <c r="BX392" s="8"/>
       <c r="BY392" s="8"/>
     </row>
-    <row r="393" spans="1:77" hidden="1">
+    <row r="393" spans="1:77" hidden="1" x14ac:dyDescent="0.15">
       <c r="A393" s="12" t="s">
         <v>567</v>
       </c>
@@ -23881,7 +23890,7 @@
       <c r="F393" s="12"/>
       <c r="G393" s="12"/>
     </row>
-    <row r="394" spans="1:77" s="1" customFormat="1" hidden="1">
+    <row r="394" spans="1:77" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A394" s="9" t="s">
         <v>568</v>
       </c>
@@ -23966,7 +23975,7 @@
       <c r="BX394" s="9"/>
       <c r="BY394" s="9"/>
     </row>
-    <row r="395" spans="1:77" s="1" customFormat="1">
+    <row r="395" spans="1:77" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A395" s="9" t="s">
         <v>569</v>
       </c>
@@ -24053,7 +24062,7 @@
       <c r="BX395" s="9"/>
       <c r="BY395" s="9"/>
     </row>
-    <row r="396" spans="1:77" s="1" customFormat="1" hidden="1">
+    <row r="396" spans="1:77" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A396" s="9" t="s">
         <v>571</v>
       </c>
@@ -24138,7 +24147,7 @@
       <c r="BX396" s="9"/>
       <c r="BY396" s="9"/>
     </row>
-    <row r="397" spans="1:77" s="4" customFormat="1" ht="14.25" hidden="1">
+    <row r="397" spans="1:77" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A397" s="17" t="s">
         <v>572</v>
       </c>
@@ -24223,7 +24232,7 @@
       <c r="BX397" s="17"/>
       <c r="BY397" s="17"/>
     </row>
-    <row r="398" spans="1:77" s="1" customFormat="1">
+    <row r="398" spans="1:77" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A398" s="9" t="s">
         <v>573</v>
       </c>
@@ -24310,7 +24319,7 @@
       <c r="BX398" s="9"/>
       <c r="BY398" s="9"/>
     </row>
-    <row r="399" spans="1:77" s="1" customFormat="1" hidden="1">
+    <row r="399" spans="1:77" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A399" s="9" t="s">
         <v>575</v>
       </c>
@@ -24395,7 +24404,7 @@
       <c r="BX399" s="9"/>
       <c r="BY399" s="9"/>
     </row>
-    <row r="400" spans="1:77" s="1" customFormat="1" hidden="1">
+    <row r="400" spans="1:77" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A400" s="9" t="s">
         <v>576</v>
       </c>
@@ -24480,7 +24489,7 @@
       <c r="BX400" s="9"/>
       <c r="BY400" s="9"/>
     </row>
-    <row r="401" spans="1:77" s="4" customFormat="1" ht="14.25" hidden="1">
+    <row r="401" spans="1:77" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A401" s="17" t="s">
         <v>577</v>
       </c>
@@ -24565,7 +24574,7 @@
       <c r="BX401" s="17"/>
       <c r="BY401" s="17"/>
     </row>
-    <row r="402" spans="1:77" s="1" customFormat="1">
+    <row r="402" spans="1:77" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A402" s="9" t="s">
         <v>578</v>
       </c>
@@ -24576,7 +24585,7 @@
         <v>579</v>
       </c>
       <c r="D402" s="9" t="s">
-        <v>708</v>
+        <v>717</v>
       </c>
       <c r="E402" s="9"/>
       <c r="F402" s="9"/>
@@ -24652,7 +24661,7 @@
       <c r="BX402" s="9"/>
       <c r="BY402" s="9"/>
     </row>
-    <row r="403" spans="1:77" s="1" customFormat="1" hidden="1">
+    <row r="403" spans="1:77" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A403" s="9" t="s">
         <v>580</v>
       </c>
@@ -24737,7 +24746,7 @@
       <c r="BX403" s="9"/>
       <c r="BY403" s="9"/>
     </row>
-    <row r="404" spans="1:77" s="4" customFormat="1" ht="14.25" hidden="1">
+    <row r="404" spans="1:77" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A404" s="17" t="s">
         <v>581</v>
       </c>
@@ -24822,7 +24831,7 @@
       <c r="BX404" s="17"/>
       <c r="BY404" s="17"/>
     </row>
-    <row r="405" spans="1:77" s="1" customFormat="1" hidden="1">
+    <row r="405" spans="1:77" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A405" s="9" t="s">
         <v>582</v>
       </c>
@@ -24907,7 +24916,7 @@
       <c r="BX405" s="9"/>
       <c r="BY405" s="9"/>
     </row>
-    <row r="406" spans="1:77" s="1" customFormat="1">
+    <row r="406" spans="1:77" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A406" s="9" t="s">
         <v>583</v>
       </c>
@@ -24918,7 +24927,7 @@
         <v>584</v>
       </c>
       <c r="D406" s="9" t="s">
-        <v>708</v>
+        <v>717</v>
       </c>
       <c r="E406" s="9"/>
       <c r="F406" s="9"/>
@@ -24994,7 +25003,7 @@
       <c r="BX406" s="9"/>
       <c r="BY406" s="9"/>
     </row>
-    <row r="407" spans="1:77" s="1" customFormat="1" hidden="1">
+    <row r="407" spans="1:77" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A407" s="9" t="s">
         <v>585</v>
       </c>
@@ -25079,7 +25088,7 @@
       <c r="BX407" s="9"/>
       <c r="BY407" s="9"/>
     </row>
-    <row r="408" spans="1:77" s="4" customFormat="1" ht="14.25" hidden="1">
+    <row r="408" spans="1:77" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A408" s="17" t="s">
         <v>586</v>
       </c>
@@ -25164,7 +25173,7 @@
       <c r="BX408" s="17"/>
       <c r="BY408" s="17"/>
     </row>
-    <row r="409" spans="1:77" s="9" customFormat="1">
+    <row r="409" spans="1:77" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A409" s="9" t="s">
         <v>587</v>
       </c>
@@ -25175,10 +25184,10 @@
         <v>707</v>
       </c>
       <c r="D409" s="9" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="410" spans="1:77" s="8" customFormat="1" hidden="1">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="410" spans="1:77" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A410" s="11" t="s">
         <v>588</v>
       </c>
@@ -25190,7 +25199,7 @@
       </c>
       <c r="D410" s="11"/>
     </row>
-    <row r="411" spans="1:77" s="8" customFormat="1">
+    <row r="411" spans="1:77" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A411" s="11" t="s">
         <v>589</v>
       </c>
@@ -25202,7 +25211,7 @@
       </c>
       <c r="D411" s="11"/>
     </row>
-    <row r="412" spans="1:77" s="9" customFormat="1" hidden="1">
+    <row r="412" spans="1:77" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A412" s="9" t="s">
         <v>590</v>
       </c>
@@ -25213,7 +25222,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="413" spans="1:77" s="8" customFormat="1" hidden="1">
+    <row r="413" spans="1:77" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A413" s="11" t="s">
         <v>591</v>
       </c>
@@ -25225,7 +25234,7 @@
       </c>
       <c r="D413" s="11"/>
     </row>
-    <row r="414" spans="1:77" s="9" customFormat="1" hidden="1">
+    <row r="414" spans="1:77" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A414" s="9" t="s">
         <v>592</v>
       </c>
@@ -25236,7 +25245,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="415" spans="1:77" s="8" customFormat="1">
+    <row r="415" spans="1:77" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A415" s="11" t="s">
         <v>593</v>
       </c>
@@ -25247,10 +25256,10 @@
         <v>594</v>
       </c>
       <c r="D415" s="11" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="416" spans="1:77" s="8" customFormat="1" hidden="1">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="416" spans="1:77" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A416" s="11" t="s">
         <v>595</v>
       </c>
@@ -25262,7 +25271,7 @@
       </c>
       <c r="D416" s="11"/>
     </row>
-    <row r="417" spans="1:4" s="9" customFormat="1">
+    <row r="417" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A417" s="9" t="s">
         <v>596</v>
       </c>
@@ -25273,10 +25282,10 @@
         <v>597</v>
       </c>
       <c r="D417" s="9" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="418" spans="1:4" s="8" customFormat="1" hidden="1">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="418" spans="1:4" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A418" s="11" t="s">
         <v>598</v>
       </c>
@@ -25288,7 +25297,7 @@
       </c>
       <c r="D418" s="11"/>
     </row>
-    <row r="419" spans="1:4" s="15" customFormat="1" hidden="1">
+    <row r="419" spans="1:4" s="15" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A419" s="15" t="s">
         <v>599</v>
       </c>
@@ -25299,7 +25308,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="420" spans="1:4" s="15" customFormat="1">
+    <row r="420" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A420" s="15" t="s">
         <v>600</v>
       </c>
@@ -25310,7 +25319,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="421" spans="1:4" s="9" customFormat="1" hidden="1">
+    <row r="421" spans="1:4" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A421" s="9" t="s">
         <v>601</v>
       </c>
@@ -25321,7 +25330,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="422" spans="1:4" s="9" customFormat="1" hidden="1">
+    <row r="422" spans="1:4" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A422" s="9" t="s">
         <v>602</v>
       </c>
@@ -25332,7 +25341,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="423" spans="1:4" s="8" customFormat="1">
+    <row r="423" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A423" s="11" t="s">
         <v>603</v>
       </c>
@@ -25343,10 +25352,10 @@
         <v>604</v>
       </c>
       <c r="D423" s="11" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="424" spans="1:4" s="9" customFormat="1" hidden="1">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="424" spans="1:4" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A424" s="9" t="s">
         <v>605</v>
       </c>
@@ -25357,7 +25366,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="425" spans="1:4" s="9" customFormat="1" hidden="1">
+    <row r="425" spans="1:4" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A425" s="9" t="s">
         <v>606</v>
       </c>
@@ -25368,7 +25377,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="426" spans="1:4" s="9" customFormat="1">
+    <row r="426" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A426" s="9" t="s">
         <v>607</v>
       </c>
@@ -25379,10 +25388,10 @@
         <v>608</v>
       </c>
       <c r="D426" s="9" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="427" spans="1:4" s="8" customFormat="1" hidden="1">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="427" spans="1:4" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A427" s="11" t="s">
         <v>609</v>
       </c>
@@ -25394,7 +25403,7 @@
       </c>
       <c r="D427" s="11"/>
     </row>
-    <row r="428" spans="1:4" s="15" customFormat="1" hidden="1">
+    <row r="428" spans="1:4" s="15" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A428" s="15" t="s">
         <v>610</v>
       </c>
@@ -25405,7 +25414,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="429" spans="1:4" s="8" customFormat="1">
+    <row r="429" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A429" s="11" t="s">
         <v>611</v>
       </c>
@@ -25417,7 +25426,7 @@
       </c>
       <c r="D429" s="11"/>
     </row>
-    <row r="430" spans="1:4" s="14" customFormat="1">
+    <row r="430" spans="1:4" s="14" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A430" s="14" t="s">
         <v>613</v>
       </c>
@@ -25428,10 +25437,10 @@
         <v>614</v>
       </c>
       <c r="D430" s="14" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="431" spans="1:4" s="12" customFormat="1" hidden="1">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="431" spans="1:4" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A431" s="12" t="s">
         <v>615</v>
       </c>
@@ -25442,7 +25451,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="432" spans="1:4" s="9" customFormat="1" hidden="1">
+    <row r="432" spans="1:4" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A432" s="9" t="s">
         <v>616</v>
       </c>
@@ -25453,7 +25462,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="433" spans="1:13" s="8" customFormat="1" hidden="1">
+    <row r="433" spans="1:13" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A433" s="11" t="s">
         <v>617</v>
       </c>
@@ -25465,7 +25474,7 @@
       </c>
       <c r="D433" s="11"/>
     </row>
-    <row r="434" spans="1:13" s="8" customFormat="1">
+    <row r="434" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A434" s="11" t="s">
         <v>618</v>
       </c>
@@ -25476,14 +25485,14 @@
         <v>619</v>
       </c>
       <c r="D434" s="11" t="s">
-        <v>708</v>
+        <v>717</v>
       </c>
       <c r="E434" s="11"/>
       <c r="F434" s="11"/>
       <c r="G434" s="11"/>
       <c r="H434" s="11"/>
     </row>
-    <row r="435" spans="1:13" s="8" customFormat="1" hidden="1">
+    <row r="435" spans="1:13" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A435" s="11" t="s">
         <v>620</v>
       </c>
@@ -25495,7 +25504,7 @@
       </c>
       <c r="D435" s="11"/>
     </row>
-    <row r="436" spans="1:13" s="8" customFormat="1">
+    <row r="436" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A436" s="11" t="s">
         <v>621</v>
       </c>
@@ -25507,7 +25516,7 @@
       </c>
       <c r="D436" s="11"/>
     </row>
-    <row r="437" spans="1:13" s="8" customFormat="1" hidden="1">
+    <row r="437" spans="1:13" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A437" s="11" t="s">
         <v>623</v>
       </c>
@@ -25519,7 +25528,7 @@
       </c>
       <c r="D437" s="11"/>
     </row>
-    <row r="438" spans="1:13" s="9" customFormat="1">
+    <row r="438" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A438" s="9" t="s">
         <v>624</v>
       </c>
@@ -25530,10 +25539,10 @@
         <v>713</v>
       </c>
       <c r="D438" s="9" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="439" spans="1:13" s="8" customFormat="1">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="439" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A439" s="11" t="s">
         <v>625</v>
       </c>
@@ -25544,7 +25553,7 @@
         <v>626</v>
       </c>
       <c r="D439" s="11" t="s">
-        <v>708</v>
+        <v>717</v>
       </c>
       <c r="E439" s="11"/>
       <c r="F439" s="11"/>
@@ -25552,7 +25561,7 @@
       <c r="H439" s="11"/>
       <c r="I439" s="11"/>
     </row>
-    <row r="440" spans="1:13" s="9" customFormat="1" hidden="1">
+    <row r="440" spans="1:13" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A440" s="9" t="s">
         <v>627</v>
       </c>
@@ -25563,7 +25572,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="441" spans="1:13" s="9" customFormat="1">
+    <row r="441" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A441" s="9" t="s">
         <v>628</v>
       </c>
@@ -25574,7 +25583,7 @@
         <v>629</v>
       </c>
       <c r="D441" s="9" t="s">
-        <v>708</v>
+        <v>717</v>
       </c>
       <c r="G441" s="11"/>
       <c r="H441" s="11"/>
@@ -25584,7 +25593,7 @@
       <c r="L441" s="11"/>
       <c r="M441" s="11"/>
     </row>
-    <row r="442" spans="1:13" s="9" customFormat="1" hidden="1">
+    <row r="442" spans="1:13" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A442" s="9" t="s">
         <v>630</v>
       </c>
@@ -25595,7 +25604,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="443" spans="1:13" s="12" customFormat="1">
+    <row r="443" spans="1:13" s="12" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A443" s="12" t="s">
         <v>631</v>
       </c>
@@ -25606,10 +25615,10 @@
         <v>632</v>
       </c>
       <c r="D443" s="12" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="444" spans="1:13" s="8" customFormat="1" hidden="1">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="444" spans="1:13" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A444" s="11" t="s">
         <v>633</v>
       </c>
@@ -25621,7 +25630,7 @@
       </c>
       <c r="D444" s="11"/>
     </row>
-    <row r="445" spans="1:13" s="8" customFormat="1">
+    <row r="445" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A445" s="11" t="s">
         <v>634</v>
       </c>
@@ -25632,10 +25641,10 @@
         <v>635</v>
       </c>
       <c r="D445" s="11" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="446" spans="1:13" s="15" customFormat="1" hidden="1">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="446" spans="1:13" s="15" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A446" s="15" t="s">
         <v>636</v>
       </c>
@@ -25646,7 +25655,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="447" spans="1:13" s="8" customFormat="1" hidden="1">
+    <row r="447" spans="1:13" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A447" s="11" t="s">
         <v>637</v>
       </c>
@@ -25658,7 +25667,7 @@
       </c>
       <c r="D447" s="11"/>
     </row>
-    <row r="448" spans="1:13" s="8" customFormat="1">
+    <row r="448" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A448" s="11" t="s">
         <v>638</v>
       </c>
@@ -25669,10 +25678,10 @@
         <v>639</v>
       </c>
       <c r="D448" s="11" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="449" spans="1:10" s="8" customFormat="1" hidden="1">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="449" spans="1:10" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A449" s="11" t="s">
         <v>640</v>
       </c>
@@ -25684,7 +25693,7 @@
       </c>
       <c r="D449" s="11"/>
     </row>
-    <row r="450" spans="1:10" s="9" customFormat="1" hidden="1">
+    <row r="450" spans="1:10" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A450" s="9" t="s">
         <v>641</v>
       </c>
@@ -25695,7 +25704,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="451" spans="1:10" s="8" customFormat="1">
+    <row r="451" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A451" s="11" t="s">
         <v>642</v>
       </c>
@@ -25706,7 +25715,7 @@
         <v>643</v>
       </c>
       <c r="D451" s="11" t="s">
-        <v>708</v>
+        <v>717</v>
       </c>
       <c r="E451" s="11"/>
       <c r="F451" s="11"/>
@@ -25715,7 +25724,7 @@
       <c r="I451" s="11"/>
       <c r="J451" s="11"/>
     </row>
-    <row r="452" spans="1:10" s="9" customFormat="1">
+    <row r="452" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A452" s="9" t="s">
         <v>644</v>
       </c>
@@ -25726,7 +25735,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="453" spans="1:10" s="15" customFormat="1" hidden="1">
+    <row r="453" spans="1:10" s="15" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A453" s="15" t="s">
         <v>646</v>
       </c>
@@ -25737,7 +25746,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="454" spans="1:10" s="15" customFormat="1">
+    <row r="454" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A454" s="15" t="s">
         <v>647</v>
       </c>
@@ -25751,7 +25760,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="455" spans="1:10" s="15" customFormat="1" hidden="1">
+    <row r="455" spans="1:10" s="15" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A455" s="15" t="s">
         <v>649</v>
       </c>
@@ -25762,7 +25771,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="456" spans="1:10" s="12" customFormat="1" hidden="1">
+    <row r="456" spans="1:10" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A456" s="12" t="s">
         <v>650</v>
       </c>
@@ -25773,7 +25782,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="457" spans="1:10" s="8" customFormat="1" hidden="1">
+    <row r="457" spans="1:10" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A457" s="11" t="s">
         <v>651</v>
       </c>
@@ -25785,7 +25794,7 @@
       </c>
       <c r="D457" s="11"/>
     </row>
-    <row r="458" spans="1:10" s="8" customFormat="1">
+    <row r="458" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A458" s="11" t="s">
         <v>652</v>
       </c>
@@ -25799,7 +25808,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="459" spans="1:10" s="14" customFormat="1" hidden="1">
+    <row r="459" spans="1:10" s="14" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A459" s="14" t="s">
         <v>654</v>
       </c>
@@ -25810,7 +25819,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="460" spans="1:10" s="9" customFormat="1" hidden="1">
+    <row r="460" spans="1:10" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A460" s="9" t="s">
         <v>655</v>
       </c>
@@ -25821,7 +25830,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="461" spans="1:10" s="14" customFormat="1">
+    <row r="461" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A461" s="14" t="s">
         <v>656</v>
       </c>
@@ -25832,10 +25841,10 @@
         <v>657</v>
       </c>
       <c r="D461" s="14" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="462" spans="1:10" s="8" customFormat="1" hidden="1">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="462" spans="1:10" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A462" s="11" t="s">
         <v>658</v>
       </c>
@@ -25847,7 +25856,7 @@
       </c>
       <c r="D462" s="11"/>
     </row>
-    <row r="463" spans="1:10" s="8" customFormat="1" hidden="1">
+    <row r="463" spans="1:10" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A463" s="11" t="s">
         <v>660</v>
       </c>
@@ -25859,7 +25868,7 @@
       </c>
       <c r="D463" s="11"/>
     </row>
-    <row r="464" spans="1:10" s="9" customFormat="1">
+    <row r="464" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A464" s="9" t="s">
         <v>662</v>
       </c>
@@ -25870,10 +25879,10 @@
         <v>663</v>
       </c>
       <c r="D464" s="9" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="465" spans="1:4" s="8" customFormat="1" hidden="1">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="465" spans="1:4" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A465" s="11" t="s">
         <v>664</v>
       </c>
@@ -25885,7 +25894,7 @@
       </c>
       <c r="D465" s="11"/>
     </row>
-    <row r="466" spans="1:4" s="8" customFormat="1">
+    <row r="466" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A466" s="11" t="s">
         <v>665</v>
       </c>
@@ -25896,10 +25905,10 @@
         <v>666</v>
       </c>
       <c r="D466" s="11" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="467" spans="1:4" s="8" customFormat="1" hidden="1">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="467" spans="1:4" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A467" s="11" t="s">
         <v>667</v>
       </c>
@@ -25911,7 +25920,7 @@
       </c>
       <c r="D467" s="11"/>
     </row>
-    <row r="468" spans="1:4" s="9" customFormat="1" hidden="1">
+    <row r="468" spans="1:4" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A468" s="9" t="s">
         <v>668</v>
       </c>
@@ -25922,7 +25931,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="469" spans="1:4" s="8" customFormat="1" hidden="1">
+    <row r="469" spans="1:4" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A469" s="11" t="s">
         <v>669</v>
       </c>
@@ -25934,7 +25943,7 @@
       </c>
       <c r="D469" s="11"/>
     </row>
-    <row r="470" spans="1:4" s="9" customFormat="1" hidden="1">
+    <row r="470" spans="1:4" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A470" s="9" t="s">
         <v>670</v>
       </c>
@@ -25945,7 +25954,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="471" spans="1:4" s="9" customFormat="1">
+    <row r="471" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A471" s="9" t="s">
         <v>671</v>
       </c>
@@ -25956,10 +25965,10 @@
         <v>672</v>
       </c>
       <c r="D471" s="9" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="472" spans="1:4" s="9" customFormat="1" hidden="1">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="472" spans="1:4" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A472" s="9" t="s">
         <v>673</v>
       </c>
@@ -25970,7 +25979,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="473" spans="1:4" s="8" customFormat="1" hidden="1">
+    <row r="473" spans="1:4" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A473" s="11" t="s">
         <v>674</v>
       </c>
@@ -25982,7 +25991,7 @@
       </c>
       <c r="D473" s="11"/>
     </row>
-    <row r="474" spans="1:4" s="9" customFormat="1" hidden="1">
+    <row r="474" spans="1:4" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A474" s="9" t="s">
         <v>675</v>
       </c>
@@ -25993,7 +26002,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="475" spans="1:4" s="15" customFormat="1" hidden="1">
+    <row r="475" spans="1:4" s="15" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A475" s="15" t="s">
         <v>676</v>
       </c>
@@ -26004,7 +26013,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="476" spans="1:4" s="15" customFormat="1">
+    <row r="476" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A476" s="15" t="s">
         <v>677</v>
       </c>
@@ -26018,7 +26027,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="477" spans="1:4" s="9" customFormat="1">
+    <row r="477" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A477" s="9" t="s">
         <v>679</v>
       </c>
@@ -26029,10 +26038,10 @@
         <v>680</v>
       </c>
       <c r="D477" s="9" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="478" spans="1:4" s="8" customFormat="1">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="478" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A478" s="11" t="s">
         <v>681</v>
       </c>
@@ -26043,10 +26052,10 @@
         <v>682</v>
       </c>
       <c r="D478" s="11" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="479" spans="1:4" s="9" customFormat="1" hidden="1">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="479" spans="1:4" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A479" s="9" t="s">
         <v>683</v>
       </c>
@@ -26057,7 +26066,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="480" spans="1:4" s="9" customFormat="1">
+    <row r="480" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A480" s="9" t="s">
         <v>684</v>
       </c>
@@ -26071,7 +26080,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="481" spans="1:77" s="9" customFormat="1" hidden="1">
+    <row r="481" spans="1:77" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A481" s="9" t="s">
         <v>686</v>
       </c>
@@ -26082,7 +26091,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="482" spans="1:77" s="9" customFormat="1" hidden="1">
+    <row r="482" spans="1:77" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A482" s="9" t="s">
         <v>687</v>
       </c>
@@ -26093,7 +26102,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="483" spans="1:77" s="1" customFormat="1" hidden="1">
+    <row r="483" spans="1:77" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A483" s="9" t="s">
         <v>688</v>
       </c>
@@ -26178,7 +26187,7 @@
       <c r="BX483" s="9"/>
       <c r="BY483" s="9"/>
     </row>
-    <row r="484" spans="1:77" s="1" customFormat="1" hidden="1">
+    <row r="484" spans="1:77" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A484" s="9" t="s">
         <v>689</v>
       </c>
@@ -26263,7 +26272,7 @@
       <c r="BX484" s="9"/>
       <c r="BY484" s="9"/>
     </row>
-    <row r="485" spans="1:77" s="1" customFormat="1" hidden="1">
+    <row r="485" spans="1:77" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A485" s="9" t="s">
         <v>690</v>
       </c>
@@ -26348,7 +26357,7 @@
       <c r="BX485" s="9"/>
       <c r="BY485" s="9"/>
     </row>
-    <row r="486" spans="1:77" s="1" customFormat="1" hidden="1">
+    <row r="486" spans="1:77" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A486" s="9" t="s">
         <v>691</v>
       </c>
@@ -26433,7 +26442,7 @@
       <c r="BX486" s="9"/>
       <c r="BY486" s="9"/>
     </row>
-    <row r="487" spans="1:77" s="1" customFormat="1" hidden="1">
+    <row r="487" spans="1:77" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A487" s="9" t="s">
         <v>692</v>
       </c>
@@ -26518,7 +26527,7 @@
       <c r="BX487" s="9"/>
       <c r="BY487" s="9"/>
     </row>
-    <row r="488" spans="1:77" s="6" customFormat="1">
+    <row r="488" spans="1:77" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A488" s="9" t="s">
         <v>693</v>
       </c>
@@ -26529,7 +26538,7 @@
         <v>694</v>
       </c>
       <c r="D488" s="9" t="s">
-        <v>708</v>
+        <v>717</v>
       </c>
       <c r="E488" s="9"/>
       <c r="F488" s="9"/>
@@ -26605,7 +26614,7 @@
       <c r="BX488" s="9"/>
       <c r="BY488" s="9"/>
     </row>
-    <row r="489" spans="1:77" s="1" customFormat="1" hidden="1">
+    <row r="489" spans="1:77" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A489" s="9" t="s">
         <v>695</v>
       </c>
@@ -26690,7 +26699,7 @@
       <c r="BX489" s="9"/>
       <c r="BY489" s="9"/>
     </row>
-    <row r="490" spans="1:77" s="6" customFormat="1">
+    <row r="490" spans="1:77" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A490" s="9" t="s">
         <v>696</v>
       </c>
@@ -26701,7 +26710,7 @@
         <v>697</v>
       </c>
       <c r="D490" s="9" t="s">
-        <v>708</v>
+        <v>717</v>
       </c>
       <c r="E490" s="9"/>
       <c r="F490" s="9"/>
@@ -26777,7 +26786,7 @@
       <c r="BX490" s="9"/>
       <c r="BY490" s="9"/>
     </row>
-    <row r="491" spans="1:77" s="1" customFormat="1" hidden="1">
+    <row r="491" spans="1:77" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A491" s="9" t="s">
         <v>698</v>
       </c>
@@ -26862,7 +26871,7 @@
       <c r="BX491" s="9"/>
       <c r="BY491" s="9"/>
     </row>
-    <row r="492" spans="1:77" customFormat="1" hidden="1">
+    <row r="492" spans="1:77" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A492" s="11" t="s">
         <v>699</v>
       </c>
@@ -26947,7 +26956,7 @@
       <c r="BX492" s="8"/>
       <c r="BY492" s="8"/>
     </row>
-    <row r="493" spans="1:77" s="6" customFormat="1">
+    <row r="493" spans="1:77" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A493" s="9" t="s">
         <v>700</v>
       </c>
@@ -26958,7 +26967,7 @@
         <v>701</v>
       </c>
       <c r="D493" s="9" t="s">
-        <v>708</v>
+        <v>717</v>
       </c>
       <c r="E493" s="9">
         <v>11</v>
@@ -27036,7 +27045,7 @@
       <c r="BX493" s="9"/>
       <c r="BY493" s="9"/>
     </row>
-    <row r="494" spans="1:77" customFormat="1" hidden="1">
+    <row r="494" spans="1:77" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A494" s="11" t="s">
         <v>702</v>
       </c>
@@ -27121,7 +27130,7 @@
       <c r="BX494" s="8"/>
       <c r="BY494" s="8"/>
     </row>
-    <row r="495" spans="1:77" customFormat="1">
+    <row r="495" spans="1:77" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A495" s="11" t="s">
         <v>703</v>
       </c>
@@ -27132,7 +27141,7 @@
         <v>704</v>
       </c>
       <c r="D495" s="11" t="s">
-        <v>708</v>
+        <v>717</v>
       </c>
       <c r="E495" s="8">
         <v>11</v>
@@ -27210,7 +27219,7 @@
       <c r="BX495" s="8"/>
       <c r="BY495" s="8"/>
     </row>
-    <row r="496" spans="1:77" s="2" customFormat="1">
+    <row r="496" spans="1:77" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="H496" s="14"/>
       <c r="I496" s="14"/>
       <c r="J496" s="14"/>
@@ -27282,7 +27291,7 @@
       <c r="BX496" s="14"/>
       <c r="BY496" s="14"/>
     </row>
-    <row r="497" spans="8:77" s="2" customFormat="1">
+    <row r="497" spans="8:77" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="H497" s="14"/>
       <c r="I497" s="14"/>
       <c r="J497" s="14"/>
@@ -27354,7 +27363,7 @@
       <c r="BX497" s="14"/>
       <c r="BY497" s="14"/>
     </row>
-    <row r="498" spans="8:77" s="2" customFormat="1">
+    <row r="498" spans="8:77" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="H498" s="14"/>
       <c r="I498" s="14"/>
       <c r="J498" s="14"/>
@@ -27426,7 +27435,7 @@
       <c r="BX498" s="14"/>
       <c r="BY498" s="14"/>
     </row>
-    <row r="499" spans="8:77" s="2" customFormat="1">
+    <row r="499" spans="8:77" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="H499" s="14"/>
       <c r="I499" s="14"/>
       <c r="J499" s="14"/>
@@ -27498,7 +27507,7 @@
       <c r="BX499" s="14"/>
       <c r="BY499" s="14"/>
     </row>
-    <row r="500" spans="8:77" s="2" customFormat="1">
+    <row r="500" spans="8:77" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="H500" s="14"/>
       <c r="I500" s="14"/>
       <c r="J500" s="14"/>
@@ -27570,7 +27579,7 @@
       <c r="BX500" s="14"/>
       <c r="BY500" s="14"/>
     </row>
-    <row r="501" spans="8:77" s="2" customFormat="1">
+    <row r="501" spans="8:77" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="H501" s="14"/>
       <c r="I501" s="14"/>
       <c r="J501" s="14"/>
@@ -27642,7 +27651,7 @@
       <c r="BX501" s="14"/>
       <c r="BY501" s="14"/>
     </row>
-    <row r="502" spans="8:77" s="2" customFormat="1">
+    <row r="502" spans="8:77" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="H502" s="14"/>
       <c r="I502" s="14"/>
       <c r="J502" s="14"/>
@@ -27714,7 +27723,7 @@
       <c r="BX502" s="14"/>
       <c r="BY502" s="14"/>
     </row>
-    <row r="503" spans="8:77" s="2" customFormat="1">
+    <row r="503" spans="8:77" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="H503" s="14"/>
       <c r="I503" s="14"/>
       <c r="J503" s="14"/>
@@ -27786,7 +27795,7 @@
       <c r="BX503" s="14"/>
       <c r="BY503" s="14"/>
     </row>
-    <row r="504" spans="8:77" s="2" customFormat="1">
+    <row r="504" spans="8:77" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="H504" s="14"/>
       <c r="I504" s="14"/>
       <c r="J504" s="14"/>
@@ -27858,7 +27867,7 @@
       <c r="BX504" s="14"/>
       <c r="BY504" s="14"/>
     </row>
-    <row r="505" spans="8:77" s="2" customFormat="1">
+    <row r="505" spans="8:77" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="H505" s="14"/>
       <c r="I505" s="14"/>
       <c r="J505" s="14"/>
@@ -27930,7 +27939,7 @@
       <c r="BX505" s="14"/>
       <c r="BY505" s="14"/>
     </row>
-    <row r="506" spans="8:77" s="2" customFormat="1">
+    <row r="506" spans="8:77" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="H506" s="14"/>
       <c r="I506" s="14"/>
       <c r="J506" s="14"/>
@@ -28002,7 +28011,7 @@
       <c r="BX506" s="14"/>
       <c r="BY506" s="14"/>
     </row>
-    <row r="507" spans="8:77" s="2" customFormat="1">
+    <row r="507" spans="8:77" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="H507" s="14"/>
       <c r="I507" s="14"/>
       <c r="J507" s="14"/>
@@ -28074,7 +28083,7 @@
       <c r="BX507" s="14"/>
       <c r="BY507" s="14"/>
     </row>
-    <row r="508" spans="8:77" s="2" customFormat="1">
+    <row r="508" spans="8:77" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="H508" s="14"/>
       <c r="I508" s="14"/>
       <c r="J508" s="14"/>
@@ -28146,7 +28155,7 @@
       <c r="BX508" s="14"/>
       <c r="BY508" s="14"/>
     </row>
-    <row r="509" spans="8:77" s="2" customFormat="1">
+    <row r="509" spans="8:77" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="H509" s="14"/>
       <c r="I509" s="14"/>
       <c r="J509" s="14"/>
@@ -28218,7 +28227,7 @@
       <c r="BX509" s="14"/>
       <c r="BY509" s="14"/>
     </row>
-    <row r="510" spans="8:77" s="2" customFormat="1">
+    <row r="510" spans="8:77" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="H510" s="14"/>
       <c r="I510" s="14"/>
       <c r="J510" s="14"/>
@@ -28290,7 +28299,7 @@
       <c r="BX510" s="14"/>
       <c r="BY510" s="14"/>
     </row>
-    <row r="511" spans="8:77" s="2" customFormat="1">
+    <row r="511" spans="8:77" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="H511" s="14"/>
       <c r="I511" s="14"/>
       <c r="J511" s="14"/>
@@ -28362,7 +28371,7 @@
       <c r="BX511" s="14"/>
       <c r="BY511" s="14"/>
     </row>
-    <row r="512" spans="8:77" s="2" customFormat="1">
+    <row r="512" spans="8:77" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="H512" s="14"/>
       <c r="I512" s="14"/>
       <c r="J512" s="14"/>
@@ -28434,7 +28443,7 @@
       <c r="BX512" s="14"/>
       <c r="BY512" s="14"/>
     </row>
-    <row r="513" spans="8:77" s="2" customFormat="1">
+    <row r="513" spans="8:77" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="H513" s="14"/>
       <c r="I513" s="14"/>
       <c r="J513" s="14"/>
@@ -28506,7 +28515,7 @@
       <c r="BX513" s="14"/>
       <c r="BY513" s="14"/>
     </row>
-    <row r="514" spans="8:77" s="2" customFormat="1">
+    <row r="514" spans="8:77" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="H514" s="14"/>
       <c r="I514" s="14"/>
       <c r="J514" s="14"/>
@@ -28578,7 +28587,7 @@
       <c r="BX514" s="14"/>
       <c r="BY514" s="14"/>
     </row>
-    <row r="515" spans="8:77" s="2" customFormat="1">
+    <row r="515" spans="8:77" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="H515" s="14"/>
       <c r="I515" s="14"/>
       <c r="J515" s="14"/>
@@ -28650,7 +28659,7 @@
       <c r="BX515" s="14"/>
       <c r="BY515" s="14"/>
     </row>
-    <row r="516" spans="8:77" s="2" customFormat="1">
+    <row r="516" spans="8:77" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="H516" s="14"/>
       <c r="I516" s="14"/>
       <c r="J516" s="14"/>
@@ -28722,7 +28731,7 @@
       <c r="BX516" s="14"/>
       <c r="BY516" s="14"/>
     </row>
-    <row r="517" spans="8:77" s="2" customFormat="1">
+    <row r="517" spans="8:77" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="H517" s="14"/>
       <c r="I517" s="14"/>
       <c r="J517" s="14"/>
@@ -28794,7 +28803,7 @@
       <c r="BX517" s="14"/>
       <c r="BY517" s="14"/>
     </row>
-    <row r="518" spans="8:77" s="2" customFormat="1">
+    <row r="518" spans="8:77" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="H518" s="14"/>
       <c r="I518" s="14"/>
       <c r="J518" s="14"/>
@@ -28866,7 +28875,7 @@
       <c r="BX518" s="14"/>
       <c r="BY518" s="14"/>
     </row>
-    <row r="519" spans="8:77" s="2" customFormat="1">
+    <row r="519" spans="8:77" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="H519" s="14"/>
       <c r="I519" s="14"/>
       <c r="J519" s="14"/>
@@ -28938,7 +28947,7 @@
       <c r="BX519" s="14"/>
       <c r="BY519" s="14"/>
     </row>
-    <row r="520" spans="8:77" s="2" customFormat="1">
+    <row r="520" spans="8:77" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="H520" s="14"/>
       <c r="I520" s="14"/>
       <c r="J520" s="14"/>
@@ -29010,7 +29019,7 @@
       <c r="BX520" s="14"/>
       <c r="BY520" s="14"/>
     </row>
-    <row r="521" spans="8:77" s="2" customFormat="1">
+    <row r="521" spans="8:77" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="H521" s="14"/>
       <c r="I521" s="14"/>
       <c r="J521" s="14"/>
@@ -29082,7 +29091,7 @@
       <c r="BX521" s="14"/>
       <c r="BY521" s="14"/>
     </row>
-    <row r="522" spans="8:77" s="2" customFormat="1">
+    <row r="522" spans="8:77" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="H522" s="14"/>
       <c r="I522" s="14"/>
       <c r="J522" s="14"/>
@@ -29154,7 +29163,7 @@
       <c r="BX522" s="14"/>
       <c r="BY522" s="14"/>
     </row>
-    <row r="523" spans="8:77" s="2" customFormat="1">
+    <row r="523" spans="8:77" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="H523" s="14"/>
       <c r="I523" s="14"/>
       <c r="J523" s="14"/>
@@ -29226,7 +29235,7 @@
       <c r="BX523" s="14"/>
       <c r="BY523" s="14"/>
     </row>
-    <row r="524" spans="8:77" s="2" customFormat="1">
+    <row r="524" spans="8:77" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="H524" s="14"/>
       <c r="I524" s="14"/>
       <c r="J524" s="14"/>
@@ -29298,7 +29307,7 @@
       <c r="BX524" s="14"/>
       <c r="BY524" s="14"/>
     </row>
-    <row r="525" spans="8:77" s="2" customFormat="1">
+    <row r="525" spans="8:77" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="H525" s="14"/>
       <c r="I525" s="14"/>
       <c r="J525" s="14"/>
@@ -29370,7 +29379,7 @@
       <c r="BX525" s="14"/>
       <c r="BY525" s="14"/>
     </row>
-    <row r="526" spans="8:77" s="2" customFormat="1">
+    <row r="526" spans="8:77" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="H526" s="14"/>
       <c r="I526" s="14"/>
       <c r="J526" s="14"/>
@@ -29442,7 +29451,7 @@
       <c r="BX526" s="14"/>
       <c r="BY526" s="14"/>
     </row>
-    <row r="527" spans="8:77" s="2" customFormat="1">
+    <row r="527" spans="8:77" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="H527" s="14"/>
       <c r="I527" s="14"/>
       <c r="J527" s="14"/>
@@ -29514,7 +29523,7 @@
       <c r="BX527" s="14"/>
       <c r="BY527" s="14"/>
     </row>
-    <row r="528" spans="8:77" s="2" customFormat="1">
+    <row r="528" spans="8:77" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="H528" s="14"/>
       <c r="I528" s="14"/>
       <c r="J528" s="14"/>
@@ -29586,7 +29595,7 @@
       <c r="BX528" s="14"/>
       <c r="BY528" s="14"/>
     </row>
-    <row r="529" spans="8:77" s="2" customFormat="1">
+    <row r="529" spans="8:77" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="H529" s="14"/>
       <c r="I529" s="14"/>
       <c r="J529" s="14"/>
@@ -29658,7 +29667,7 @@
       <c r="BX529" s="14"/>
       <c r="BY529" s="14"/>
     </row>
-    <row r="530" spans="8:77" s="2" customFormat="1">
+    <row r="530" spans="8:77" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="H530" s="14"/>
       <c r="I530" s="14"/>
       <c r="J530" s="14"/>
@@ -29730,7 +29739,7 @@
       <c r="BX530" s="14"/>
       <c r="BY530" s="14"/>
     </row>
-    <row r="531" spans="8:77" s="2" customFormat="1">
+    <row r="531" spans="8:77" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="H531" s="14"/>
       <c r="I531" s="14"/>
       <c r="J531" s="14"/>
@@ -29802,7 +29811,7 @@
       <c r="BX531" s="14"/>
       <c r="BY531" s="14"/>
     </row>
-    <row r="532" spans="8:77" s="2" customFormat="1">
+    <row r="532" spans="8:77" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="H532" s="14"/>
       <c r="I532" s="14"/>
       <c r="J532" s="14"/>
@@ -29874,7 +29883,7 @@
       <c r="BX532" s="14"/>
       <c r="BY532" s="14"/>
     </row>
-    <row r="533" spans="8:77" s="2" customFormat="1">
+    <row r="533" spans="8:77" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="H533" s="14"/>
       <c r="I533" s="14"/>
       <c r="J533" s="14"/>
@@ -29946,7 +29955,7 @@
       <c r="BX533" s="14"/>
       <c r="BY533" s="14"/>
     </row>
-    <row r="534" spans="8:77" s="2" customFormat="1">
+    <row r="534" spans="8:77" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="H534" s="14"/>
       <c r="I534" s="14"/>
       <c r="J534" s="14"/>
@@ -30018,7 +30027,7 @@
       <c r="BX534" s="14"/>
       <c r="BY534" s="14"/>
     </row>
-    <row r="535" spans="8:77" s="2" customFormat="1">
+    <row r="535" spans="8:77" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="H535" s="14"/>
       <c r="I535" s="14"/>
       <c r="J535" s="14"/>
@@ -30090,7 +30099,7 @@
       <c r="BX535" s="14"/>
       <c r="BY535" s="14"/>
     </row>
-    <row r="536" spans="8:77" s="2" customFormat="1">
+    <row r="536" spans="8:77" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="H536" s="14"/>
       <c r="I536" s="14"/>
       <c r="J536" s="14"/>
@@ -30162,7 +30171,7 @@
       <c r="BX536" s="14"/>
       <c r="BY536" s="14"/>
     </row>
-    <row r="537" spans="8:77" s="2" customFormat="1">
+    <row r="537" spans="8:77" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="H537" s="14"/>
       <c r="I537" s="14"/>
       <c r="J537" s="14"/>
@@ -30234,7 +30243,7 @@
       <c r="BX537" s="14"/>
       <c r="BY537" s="14"/>
     </row>
-    <row r="538" spans="8:77" s="2" customFormat="1">
+    <row r="538" spans="8:77" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="H538" s="14"/>
       <c r="I538" s="14"/>
       <c r="J538" s="14"/>
@@ -30306,7 +30315,7 @@
       <c r="BX538" s="14"/>
       <c r="BY538" s="14"/>
     </row>
-    <row r="539" spans="8:77" s="2" customFormat="1">
+    <row r="539" spans="8:77" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="H539" s="14"/>
       <c r="I539" s="14"/>
       <c r="J539" s="14"/>
@@ -30378,7 +30387,7 @@
       <c r="BX539" s="14"/>
       <c r="BY539" s="14"/>
     </row>
-    <row r="540" spans="8:77" s="2" customFormat="1">
+    <row r="540" spans="8:77" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="H540" s="14"/>
       <c r="I540" s="14"/>
       <c r="J540" s="14"/>
@@ -30450,7 +30459,7 @@
       <c r="BX540" s="14"/>
       <c r="BY540" s="14"/>
     </row>
-    <row r="541" spans="8:77" s="2" customFormat="1">
+    <row r="541" spans="8:77" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="H541" s="14"/>
       <c r="I541" s="14"/>
       <c r="J541" s="14"/>
@@ -30522,7 +30531,7 @@
       <c r="BX541" s="14"/>
       <c r="BY541" s="14"/>
     </row>
-    <row r="542" spans="8:77" s="2" customFormat="1">
+    <row r="542" spans="8:77" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="H542" s="14"/>
       <c r="I542" s="14"/>
       <c r="J542" s="14"/>
@@ -30594,7 +30603,7 @@
       <c r="BX542" s="14"/>
       <c r="BY542" s="14"/>
     </row>
-    <row r="543" spans="8:77" s="2" customFormat="1">
+    <row r="543" spans="8:77" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="H543" s="14"/>
       <c r="I543" s="14"/>
       <c r="J543" s="14"/>
@@ -30666,7 +30675,7 @@
       <c r="BX543" s="14"/>
       <c r="BY543" s="14"/>
     </row>
-    <row r="544" spans="8:77" s="2" customFormat="1">
+    <row r="544" spans="8:77" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="H544" s="14"/>
       <c r="I544" s="14"/>
       <c r="J544" s="14"/>
@@ -30738,7 +30747,7 @@
       <c r="BX544" s="14"/>
       <c r="BY544" s="14"/>
     </row>
-    <row r="545" spans="8:77" s="2" customFormat="1">
+    <row r="545" spans="8:77" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="H545" s="14"/>
       <c r="I545" s="14"/>
       <c r="J545" s="14"/>
@@ -30810,7 +30819,7 @@
       <c r="BX545" s="14"/>
       <c r="BY545" s="14"/>
     </row>
-    <row r="546" spans="8:77" s="2" customFormat="1">
+    <row r="546" spans="8:77" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="H546" s="14"/>
       <c r="I546" s="14"/>
       <c r="J546" s="14"/>
@@ -30882,7 +30891,7 @@
       <c r="BX546" s="14"/>
       <c r="BY546" s="14"/>
     </row>
-    <row r="547" spans="8:77" s="2" customFormat="1">
+    <row r="547" spans="8:77" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="H547" s="14"/>
       <c r="I547" s="14"/>
       <c r="J547" s="14"/>
@@ -30954,7 +30963,7 @@
       <c r="BX547" s="14"/>
       <c r="BY547" s="14"/>
     </row>
-    <row r="548" spans="8:77" s="2" customFormat="1">
+    <row r="548" spans="8:77" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="H548" s="14"/>
       <c r="I548" s="14"/>
       <c r="J548" s="14"/>
@@ -31026,7 +31035,7 @@
       <c r="BX548" s="14"/>
       <c r="BY548" s="14"/>
     </row>
-    <row r="549" spans="8:77" s="2" customFormat="1">
+    <row r="549" spans="8:77" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="H549" s="14"/>
       <c r="I549" s="14"/>
       <c r="J549" s="14"/>
@@ -31098,7 +31107,7 @@
       <c r="BX549" s="14"/>
       <c r="BY549" s="14"/>
     </row>
-    <row r="550" spans="8:77" s="2" customFormat="1">
+    <row r="550" spans="8:77" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="H550" s="14"/>
       <c r="I550" s="14"/>
       <c r="J550" s="14"/>
@@ -31170,7 +31179,7 @@
       <c r="BX550" s="14"/>
       <c r="BY550" s="14"/>
     </row>
-    <row r="551" spans="8:77" s="2" customFormat="1">
+    <row r="551" spans="8:77" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="H551" s="14"/>
       <c r="I551" s="14"/>
       <c r="J551" s="14"/>
@@ -31242,7 +31251,7 @@
       <c r="BX551" s="14"/>
       <c r="BY551" s="14"/>
     </row>
-    <row r="552" spans="8:77" s="2" customFormat="1">
+    <row r="552" spans="8:77" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="H552" s="14"/>
       <c r="I552" s="14"/>
       <c r="J552" s="14"/>
@@ -31314,7 +31323,7 @@
       <c r="BX552" s="14"/>
       <c r="BY552" s="14"/>
     </row>
-    <row r="553" spans="8:77" s="2" customFormat="1">
+    <row r="553" spans="8:77" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="H553" s="14"/>
       <c r="I553" s="14"/>
       <c r="J553" s="14"/>
@@ -31386,7 +31395,7 @@
       <c r="BX553" s="14"/>
       <c r="BY553" s="14"/>
     </row>
-    <row r="554" spans="8:77" s="2" customFormat="1">
+    <row r="554" spans="8:77" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="H554" s="14"/>
       <c r="I554" s="14"/>
       <c r="J554" s="14"/>
@@ -31458,7 +31467,7 @@
       <c r="BX554" s="14"/>
       <c r="BY554" s="14"/>
     </row>
-    <row r="555" spans="8:77" s="2" customFormat="1">
+    <row r="555" spans="8:77" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="H555" s="14"/>
       <c r="I555" s="14"/>
       <c r="J555" s="14"/>
@@ -31530,7 +31539,7 @@
       <c r="BX555" s="14"/>
       <c r="BY555" s="14"/>
     </row>
-    <row r="556" spans="8:77" s="2" customFormat="1">
+    <row r="556" spans="8:77" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="H556" s="14"/>
       <c r="I556" s="14"/>
       <c r="J556" s="14"/>
@@ -31602,7 +31611,7 @@
       <c r="BX556" s="14"/>
       <c r="BY556" s="14"/>
     </row>
-    <row r="557" spans="8:77" s="2" customFormat="1">
+    <row r="557" spans="8:77" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="H557" s="14"/>
       <c r="I557" s="14"/>
       <c r="J557" s="14"/>
@@ -31674,7 +31683,7 @@
       <c r="BX557" s="14"/>
       <c r="BY557" s="14"/>
     </row>
-    <row r="558" spans="8:77" s="2" customFormat="1">
+    <row r="558" spans="8:77" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="H558" s="14"/>
       <c r="I558" s="14"/>
       <c r="J558" s="14"/>
@@ -31746,7 +31755,7 @@
       <c r="BX558" s="14"/>
       <c r="BY558" s="14"/>
     </row>
-    <row r="559" spans="8:77" s="2" customFormat="1">
+    <row r="559" spans="8:77" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="H559" s="14"/>
       <c r="I559" s="14"/>
       <c r="J559" s="14"/>
@@ -31818,7 +31827,7 @@
       <c r="BX559" s="14"/>
       <c r="BY559" s="14"/>
     </row>
-    <row r="560" spans="8:77" s="2" customFormat="1">
+    <row r="560" spans="8:77" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="H560" s="14"/>
       <c r="I560" s="14"/>
       <c r="J560" s="14"/>
@@ -31890,7 +31899,7 @@
       <c r="BX560" s="14"/>
       <c r="BY560" s="14"/>
     </row>
-    <row r="561" spans="8:77" s="2" customFormat="1">
+    <row r="561" spans="8:77" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="H561" s="14"/>
       <c r="I561" s="14"/>
       <c r="J561" s="14"/>
@@ -31962,7 +31971,7 @@
       <c r="BX561" s="14"/>
       <c r="BY561" s="14"/>
     </row>
-    <row r="562" spans="8:77" s="2" customFormat="1">
+    <row r="562" spans="8:77" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="H562" s="14"/>
       <c r="I562" s="14"/>
       <c r="J562" s="14"/>
@@ -32034,7 +32043,7 @@
       <c r="BX562" s="14"/>
       <c r="BY562" s="14"/>
     </row>
-    <row r="563" spans="8:77" s="2" customFormat="1">
+    <row r="563" spans="8:77" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="H563" s="14"/>
       <c r="I563" s="14"/>
       <c r="J563" s="14"/>
@@ -32106,7 +32115,7 @@
       <c r="BX563" s="14"/>
       <c r="BY563" s="14"/>
     </row>
-    <row r="564" spans="8:77" s="2" customFormat="1">
+    <row r="564" spans="8:77" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="H564" s="14"/>
       <c r="I564" s="14"/>
       <c r="J564" s="14"/>
@@ -32178,7 +32187,7 @@
       <c r="BX564" s="14"/>
       <c r="BY564" s="14"/>
     </row>
-    <row r="565" spans="8:77" s="2" customFormat="1">
+    <row r="565" spans="8:77" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="H565" s="14"/>
       <c r="I565" s="14"/>
       <c r="J565" s="14"/>
@@ -32250,7 +32259,7 @@
       <c r="BX565" s="14"/>
       <c r="BY565" s="14"/>
     </row>
-    <row r="566" spans="8:77" s="2" customFormat="1">
+    <row r="566" spans="8:77" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="H566" s="14"/>
       <c r="I566" s="14"/>
       <c r="J566" s="14"/>
@@ -32322,7 +32331,7 @@
       <c r="BX566" s="14"/>
       <c r="BY566" s="14"/>
     </row>
-    <row r="567" spans="8:77" s="2" customFormat="1">
+    <row r="567" spans="8:77" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="H567" s="14"/>
       <c r="I567" s="14"/>
       <c r="J567" s="14"/>
@@ -32394,7 +32403,7 @@
       <c r="BX567" s="14"/>
       <c r="BY567" s="14"/>
     </row>
-    <row r="568" spans="8:77" s="2" customFormat="1">
+    <row r="568" spans="8:77" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="H568" s="14"/>
       <c r="I568" s="14"/>
       <c r="J568" s="14"/>
@@ -32466,7 +32475,7 @@
       <c r="BX568" s="14"/>
       <c r="BY568" s="14"/>
     </row>
-    <row r="569" spans="8:77" s="2" customFormat="1">
+    <row r="569" spans="8:77" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="H569" s="14"/>
       <c r="I569" s="14"/>
       <c r="J569" s="14"/>
@@ -32538,7 +32547,7 @@
       <c r="BX569" s="14"/>
       <c r="BY569" s="14"/>
     </row>
-    <row r="570" spans="8:77" s="2" customFormat="1">
+    <row r="570" spans="8:77" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="H570" s="14"/>
       <c r="I570" s="14"/>
       <c r="J570" s="14"/>
@@ -32610,7 +32619,7 @@
       <c r="BX570" s="14"/>
       <c r="BY570" s="14"/>
     </row>
-    <row r="571" spans="8:77" s="2" customFormat="1">
+    <row r="571" spans="8:77" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="H571" s="14"/>
       <c r="I571" s="14"/>
       <c r="J571" s="14"/>
@@ -32682,7 +32691,7 @@
       <c r="BX571" s="14"/>
       <c r="BY571" s="14"/>
     </row>
-    <row r="572" spans="8:77" s="2" customFormat="1">
+    <row r="572" spans="8:77" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="H572" s="14"/>
       <c r="I572" s="14"/>
       <c r="J572" s="14"/>
@@ -32754,7 +32763,7 @@
       <c r="BX572" s="14"/>
       <c r="BY572" s="14"/>
     </row>
-    <row r="573" spans="8:77" s="2" customFormat="1">
+    <row r="573" spans="8:77" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="H573" s="14"/>
       <c r="I573" s="14"/>
       <c r="J573" s="14"/>
@@ -32826,7 +32835,7 @@
       <c r="BX573" s="14"/>
       <c r="BY573" s="14"/>
     </row>
-    <row r="574" spans="8:77" s="2" customFormat="1">
+    <row r="574" spans="8:77" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="H574" s="14"/>
       <c r="I574" s="14"/>
       <c r="J574" s="14"/>
@@ -32898,7 +32907,7 @@
       <c r="BX574" s="14"/>
       <c r="BY574" s="14"/>
     </row>
-    <row r="575" spans="8:77" s="2" customFormat="1">
+    <row r="575" spans="8:77" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="H575" s="14"/>
       <c r="I575" s="14"/>
       <c r="J575" s="14"/>
@@ -32970,7 +32979,7 @@
       <c r="BX575" s="14"/>
       <c r="BY575" s="14"/>
     </row>
-    <row r="576" spans="8:77" s="2" customFormat="1">
+    <row r="576" spans="8:77" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="H576" s="14"/>
       <c r="I576" s="14"/>
       <c r="J576" s="14"/>
@@ -33042,7 +33051,7 @@
       <c r="BX576" s="14"/>
       <c r="BY576" s="14"/>
     </row>
-    <row r="577" spans="8:77" s="2" customFormat="1">
+    <row r="577" spans="8:77" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="H577" s="14"/>
       <c r="I577" s="14"/>
       <c r="J577" s="14"/>
@@ -33114,7 +33123,7 @@
       <c r="BX577" s="14"/>
       <c r="BY577" s="14"/>
     </row>
-    <row r="578" spans="8:77" s="2" customFormat="1">
+    <row r="578" spans="8:77" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="H578" s="14"/>
       <c r="I578" s="14"/>
       <c r="J578" s="14"/>
@@ -33186,7 +33195,7 @@
       <c r="BX578" s="14"/>
       <c r="BY578" s="14"/>
     </row>
-    <row r="579" spans="8:77" s="2" customFormat="1">
+    <row r="579" spans="8:77" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="H579" s="14"/>
       <c r="I579" s="14"/>
       <c r="J579" s="14"/>
@@ -33258,7 +33267,7 @@
       <c r="BX579" s="14"/>
       <c r="BY579" s="14"/>
     </row>
-    <row r="580" spans="8:77" s="2" customFormat="1">
+    <row r="580" spans="8:77" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="H580" s="14"/>
       <c r="I580" s="14"/>
       <c r="J580" s="14"/>
@@ -33330,7 +33339,7 @@
       <c r="BX580" s="14"/>
       <c r="BY580" s="14"/>
     </row>
-    <row r="581" spans="8:77" s="2" customFormat="1">
+    <row r="581" spans="8:77" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="H581" s="14"/>
       <c r="I581" s="14"/>
       <c r="J581" s="14"/>
@@ -33402,7 +33411,7 @@
       <c r="BX581" s="14"/>
       <c r="BY581" s="14"/>
     </row>
-    <row r="582" spans="8:77" s="2" customFormat="1">
+    <row r="582" spans="8:77" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="H582" s="14"/>
       <c r="I582" s="14"/>
       <c r="J582" s="14"/>
@@ -33474,7 +33483,7 @@
       <c r="BX582" s="14"/>
       <c r="BY582" s="14"/>
     </row>
-    <row r="583" spans="8:77" s="2" customFormat="1">
+    <row r="583" spans="8:77" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="H583" s="14"/>
       <c r="I583" s="14"/>
       <c r="J583" s="14"/>
@@ -33546,7 +33555,7 @@
       <c r="BX583" s="14"/>
       <c r="BY583" s="14"/>
     </row>
-    <row r="584" spans="8:77" s="2" customFormat="1">
+    <row r="584" spans="8:77" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="H584" s="14"/>
       <c r="I584" s="14"/>
       <c r="J584" s="14"/>
@@ -33618,7 +33627,7 @@
       <c r="BX584" s="14"/>
       <c r="BY584" s="14"/>
     </row>
-    <row r="585" spans="8:77" s="2" customFormat="1">
+    <row r="585" spans="8:77" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="H585" s="14"/>
       <c r="I585" s="14"/>
       <c r="J585" s="14"/>
@@ -33690,7 +33699,7 @@
       <c r="BX585" s="14"/>
       <c r="BY585" s="14"/>
     </row>
-    <row r="586" spans="8:77" s="2" customFormat="1">
+    <row r="586" spans="8:77" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="H586" s="14"/>
       <c r="I586" s="14"/>
       <c r="J586" s="14"/>
@@ -33762,7 +33771,7 @@
       <c r="BX586" s="14"/>
       <c r="BY586" s="14"/>
     </row>
-    <row r="587" spans="8:77" s="2" customFormat="1">
+    <row r="587" spans="8:77" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="H587" s="14"/>
       <c r="I587" s="14"/>
       <c r="J587" s="14"/>
@@ -33834,7 +33843,7 @@
       <c r="BX587" s="14"/>
       <c r="BY587" s="14"/>
     </row>
-    <row r="588" spans="8:77" s="2" customFormat="1">
+    <row r="588" spans="8:77" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="H588" s="14"/>
       <c r="I588" s="14"/>
       <c r="J588" s="14"/>
@@ -33906,7 +33915,7 @@
       <c r="BX588" s="14"/>
       <c r="BY588" s="14"/>
     </row>
-    <row r="589" spans="8:77" s="2" customFormat="1">
+    <row r="589" spans="8:77" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="H589" s="14"/>
       <c r="I589" s="14"/>
       <c r="J589" s="14"/>
@@ -33978,7 +33987,7 @@
       <c r="BX589" s="14"/>
       <c r="BY589" s="14"/>
     </row>
-    <row r="590" spans="8:77" s="2" customFormat="1">
+    <row r="590" spans="8:77" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="H590" s="14"/>
       <c r="I590" s="14"/>
       <c r="J590" s="14"/>
@@ -34050,7 +34059,7 @@
       <c r="BX590" s="14"/>
       <c r="BY590" s="14"/>
     </row>
-    <row r="591" spans="8:77" s="2" customFormat="1">
+    <row r="591" spans="8:77" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="H591" s="14"/>
       <c r="I591" s="14"/>
       <c r="J591" s="14"/>
@@ -34122,7 +34131,7 @@
       <c r="BX591" s="14"/>
       <c r="BY591" s="14"/>
     </row>
-    <row r="592" spans="8:77" s="2" customFormat="1">
+    <row r="592" spans="8:77" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="H592" s="14"/>
       <c r="I592" s="14"/>
       <c r="J592" s="14"/>
@@ -34194,7 +34203,7 @@
       <c r="BX592" s="14"/>
       <c r="BY592" s="14"/>
     </row>
-    <row r="593" spans="8:77" s="2" customFormat="1">
+    <row r="593" spans="8:77" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="H593" s="14"/>
       <c r="I593" s="14"/>
       <c r="J593" s="14"/>
@@ -34266,7 +34275,7 @@
       <c r="BX593" s="14"/>
       <c r="BY593" s="14"/>
     </row>
-    <row r="594" spans="8:77" s="2" customFormat="1">
+    <row r="594" spans="8:77" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="H594" s="14"/>
       <c r="I594" s="14"/>
       <c r="J594" s="14"/>
@@ -34338,7 +34347,7 @@
       <c r="BX594" s="14"/>
       <c r="BY594" s="14"/>
     </row>
-    <row r="595" spans="8:77" s="2" customFormat="1">
+    <row r="595" spans="8:77" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="H595" s="14"/>
       <c r="I595" s="14"/>
       <c r="J595" s="14"/>
@@ -34410,7 +34419,7 @@
       <c r="BX595" s="14"/>
       <c r="BY595" s="14"/>
     </row>
-    <row r="596" spans="8:77" s="2" customFormat="1">
+    <row r="596" spans="8:77" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="H596" s="14"/>
       <c r="I596" s="14"/>
       <c r="J596" s="14"/>
@@ -34482,7 +34491,7 @@
       <c r="BX596" s="14"/>
       <c r="BY596" s="14"/>
     </row>
-    <row r="597" spans="8:77" s="2" customFormat="1">
+    <row r="597" spans="8:77" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="H597" s="14"/>
       <c r="I597" s="14"/>
       <c r="J597" s="14"/>
@@ -34554,7 +34563,7 @@
       <c r="BX597" s="14"/>
       <c r="BY597" s="14"/>
     </row>
-    <row r="598" spans="8:77" s="2" customFormat="1">
+    <row r="598" spans="8:77" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="H598" s="14"/>
       <c r="I598" s="14"/>
       <c r="J598" s="14"/>
@@ -34626,7 +34635,7 @@
       <c r="BX598" s="14"/>
       <c r="BY598" s="14"/>
     </row>
-    <row r="599" spans="8:77" s="2" customFormat="1">
+    <row r="599" spans="8:77" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="H599" s="14"/>
       <c r="I599" s="14"/>
       <c r="J599" s="14"/>
@@ -34698,7 +34707,7 @@
       <c r="BX599" s="14"/>
       <c r="BY599" s="14"/>
     </row>
-    <row r="600" spans="8:77" s="2" customFormat="1">
+    <row r="600" spans="8:77" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="H600" s="14"/>
       <c r="I600" s="14"/>
       <c r="J600" s="14"/>
@@ -34770,7 +34779,7 @@
       <c r="BX600" s="14"/>
       <c r="BY600" s="14"/>
     </row>
-    <row r="601" spans="8:77" s="2" customFormat="1">
+    <row r="601" spans="8:77" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="H601" s="14"/>
       <c r="I601" s="14"/>
       <c r="J601" s="14"/>
@@ -34842,7 +34851,7 @@
       <c r="BX601" s="14"/>
       <c r="BY601" s="14"/>
     </row>
-    <row r="602" spans="8:77" s="2" customFormat="1">
+    <row r="602" spans="8:77" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="H602" s="14"/>
       <c r="I602" s="14"/>
       <c r="J602" s="14"/>
@@ -34914,7 +34923,7 @@
       <c r="BX602" s="14"/>
       <c r="BY602" s="14"/>
     </row>
-    <row r="603" spans="8:77" s="2" customFormat="1">
+    <row r="603" spans="8:77" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="H603" s="14"/>
       <c r="I603" s="14"/>
       <c r="J603" s="14"/>
@@ -34986,7 +34995,7 @@
       <c r="BX603" s="14"/>
       <c r="BY603" s="14"/>
     </row>
-    <row r="604" spans="8:77" s="2" customFormat="1">
+    <row r="604" spans="8:77" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="H604" s="14"/>
       <c r="I604" s="14"/>
       <c r="J604" s="14"/>
@@ -35058,7 +35067,7 @@
       <c r="BX604" s="14"/>
       <c r="BY604" s="14"/>
     </row>
-    <row r="605" spans="8:77" s="2" customFormat="1">
+    <row r="605" spans="8:77" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="H605" s="14"/>
       <c r="I605" s="14"/>
       <c r="J605" s="14"/>
@@ -35130,7 +35139,7 @@
       <c r="BX605" s="14"/>
       <c r="BY605" s="14"/>
     </row>
-    <row r="606" spans="8:77" s="2" customFormat="1">
+    <row r="606" spans="8:77" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="H606" s="14"/>
       <c r="I606" s="14"/>
       <c r="J606" s="14"/>
@@ -35202,7 +35211,7 @@
       <c r="BX606" s="14"/>
       <c r="BY606" s="14"/>
     </row>
-    <row r="607" spans="8:77" s="2" customFormat="1">
+    <row r="607" spans="8:77" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="H607" s="14"/>
       <c r="I607" s="14"/>
       <c r="J607" s="14"/>
@@ -35274,7 +35283,7 @@
       <c r="BX607" s="14"/>
       <c r="BY607" s="14"/>
     </row>
-    <row r="608" spans="8:77" s="2" customFormat="1">
+    <row r="608" spans="8:77" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="H608" s="14"/>
       <c r="I608" s="14"/>
       <c r="J608" s="14"/>
@@ -35346,7 +35355,7 @@
       <c r="BX608" s="14"/>
       <c r="BY608" s="14"/>
     </row>
-    <row r="609" spans="8:77" s="2" customFormat="1">
+    <row r="609" spans="8:77" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="H609" s="14"/>
       <c r="I609" s="14"/>
       <c r="J609" s="14"/>
@@ -35418,7 +35427,7 @@
       <c r="BX609" s="14"/>
       <c r="BY609" s="14"/>
     </row>
-    <row r="610" spans="8:77" s="2" customFormat="1">
+    <row r="610" spans="8:77" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="H610" s="14"/>
       <c r="I610" s="14"/>
       <c r="J610" s="14"/>
@@ -35490,7 +35499,7 @@
       <c r="BX610" s="14"/>
       <c r="BY610" s="14"/>
     </row>
-    <row r="611" spans="8:77" s="2" customFormat="1">
+    <row r="611" spans="8:77" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="H611" s="14"/>
       <c r="I611" s="14"/>
       <c r="J611" s="14"/>
@@ -35562,7 +35571,7 @@
       <c r="BX611" s="14"/>
       <c r="BY611" s="14"/>
     </row>
-    <row r="612" spans="8:77" s="2" customFormat="1">
+    <row r="612" spans="8:77" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="H612" s="14"/>
       <c r="I612" s="14"/>
       <c r="J612" s="14"/>
@@ -35634,7 +35643,7 @@
       <c r="BX612" s="14"/>
       <c r="BY612" s="14"/>
     </row>
-    <row r="613" spans="8:77" s="2" customFormat="1">
+    <row r="613" spans="8:77" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="H613" s="14"/>
       <c r="I613" s="14"/>
       <c r="J613" s="14"/>
@@ -35706,7 +35715,7 @@
       <c r="BX613" s="14"/>
       <c r="BY613" s="14"/>
     </row>
-    <row r="614" spans="8:77" s="2" customFormat="1">
+    <row r="614" spans="8:77" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="H614" s="14"/>
       <c r="I614" s="14"/>
       <c r="J614" s="14"/>
@@ -35778,7 +35787,7 @@
       <c r="BX614" s="14"/>
       <c r="BY614" s="14"/>
     </row>
-    <row r="615" spans="8:77" s="2" customFormat="1">
+    <row r="615" spans="8:77" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="H615" s="14"/>
       <c r="I615" s="14"/>
       <c r="J615" s="14"/>
@@ -35850,7 +35859,7 @@
       <c r="BX615" s="14"/>
       <c r="BY615" s="14"/>
     </row>
-    <row r="616" spans="8:77" s="2" customFormat="1">
+    <row r="616" spans="8:77" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="H616" s="14"/>
       <c r="I616" s="14"/>
       <c r="J616" s="14"/>
@@ -35922,7 +35931,7 @@
       <c r="BX616" s="14"/>
       <c r="BY616" s="14"/>
     </row>
-    <row r="617" spans="8:77" s="2" customFormat="1">
+    <row r="617" spans="8:77" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="H617" s="14"/>
       <c r="I617" s="14"/>
       <c r="J617" s="14"/>
@@ -35994,7 +36003,7 @@
       <c r="BX617" s="14"/>
       <c r="BY617" s="14"/>
     </row>
-    <row r="618" spans="8:77" s="2" customFormat="1">
+    <row r="618" spans="8:77" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="H618" s="14"/>
       <c r="I618" s="14"/>
       <c r="J618" s="14"/>
@@ -36066,7 +36075,7 @@
       <c r="BX618" s="14"/>
       <c r="BY618" s="14"/>
     </row>
-    <row r="619" spans="8:77" s="2" customFormat="1">
+    <row r="619" spans="8:77" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="H619" s="14"/>
       <c r="I619" s="14"/>
       <c r="J619" s="14"/>
@@ -36138,7 +36147,7 @@
       <c r="BX619" s="14"/>
       <c r="BY619" s="14"/>
     </row>
-    <row r="620" spans="8:77" s="2" customFormat="1">
+    <row r="620" spans="8:77" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="H620" s="14"/>
       <c r="I620" s="14"/>
       <c r="J620" s="14"/>
@@ -36210,7 +36219,7 @@
       <c r="BX620" s="14"/>
       <c r="BY620" s="14"/>
     </row>
-    <row r="621" spans="8:77" s="2" customFormat="1">
+    <row r="621" spans="8:77" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="H621" s="14"/>
       <c r="I621" s="14"/>
       <c r="J621" s="14"/>
@@ -36282,7 +36291,7 @@
       <c r="BX621" s="14"/>
       <c r="BY621" s="14"/>
     </row>
-    <row r="622" spans="8:77" s="2" customFormat="1">
+    <row r="622" spans="8:77" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="H622" s="14"/>
       <c r="I622" s="14"/>
       <c r="J622" s="14"/>
@@ -36354,7 +36363,7 @@
       <c r="BX622" s="14"/>
       <c r="BY622" s="14"/>
     </row>
-    <row r="623" spans="8:77" s="2" customFormat="1">
+    <row r="623" spans="8:77" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="H623" s="14"/>
       <c r="I623" s="14"/>
       <c r="J623" s="14"/>
@@ -36426,7 +36435,7 @@
       <c r="BX623" s="14"/>
       <c r="BY623" s="14"/>
     </row>
-    <row r="624" spans="8:77" s="2" customFormat="1">
+    <row r="624" spans="8:77" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="H624" s="14"/>
       <c r="I624" s="14"/>
       <c r="J624" s="14"/>
@@ -36498,7 +36507,7 @@
       <c r="BX624" s="14"/>
       <c r="BY624" s="14"/>
     </row>
-    <row r="625" spans="8:77" s="2" customFormat="1">
+    <row r="625" spans="8:77" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="H625" s="14"/>
       <c r="I625" s="14"/>
       <c r="J625" s="14"/>
@@ -36570,7 +36579,7 @@
       <c r="BX625" s="14"/>
       <c r="BY625" s="14"/>
     </row>
-    <row r="626" spans="8:77" s="2" customFormat="1">
+    <row r="626" spans="8:77" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="H626" s="14"/>
       <c r="I626" s="14"/>
       <c r="J626" s="14"/>
@@ -36642,7 +36651,7 @@
       <c r="BX626" s="14"/>
       <c r="BY626" s="14"/>
     </row>
-    <row r="627" spans="8:77" s="2" customFormat="1">
+    <row r="627" spans="8:77" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="H627" s="14"/>
       <c r="I627" s="14"/>
       <c r="J627" s="14"/>
@@ -36714,7 +36723,7 @@
       <c r="BX627" s="14"/>
       <c r="BY627" s="14"/>
     </row>
-    <row r="628" spans="8:77" s="2" customFormat="1">
+    <row r="628" spans="8:77" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="H628" s="14"/>
       <c r="I628" s="14"/>
       <c r="J628" s="14"/>
@@ -36786,7 +36795,7 @@
       <c r="BX628" s="14"/>
       <c r="BY628" s="14"/>
     </row>
-    <row r="629" spans="8:77" s="2" customFormat="1">
+    <row r="629" spans="8:77" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="H629" s="14"/>
       <c r="I629" s="14"/>
       <c r="J629" s="14"/>
@@ -36858,7 +36867,7 @@
       <c r="BX629" s="14"/>
       <c r="BY629" s="14"/>
     </row>
-    <row r="630" spans="8:77" s="2" customFormat="1">
+    <row r="630" spans="8:77" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="H630" s="14"/>
       <c r="I630" s="14"/>
       <c r="J630" s="14"/>
@@ -36930,7 +36939,7 @@
       <c r="BX630" s="14"/>
       <c r="BY630" s="14"/>
     </row>
-    <row r="631" spans="8:77" s="2" customFormat="1">
+    <row r="631" spans="8:77" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="H631" s="14"/>
       <c r="I631" s="14"/>
       <c r="J631" s="14"/>
@@ -37002,7 +37011,7 @@
       <c r="BX631" s="14"/>
       <c r="BY631" s="14"/>
     </row>
-    <row r="632" spans="8:77" s="2" customFormat="1">
+    <row r="632" spans="8:77" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="H632" s="14"/>
       <c r="I632" s="14"/>
       <c r="J632" s="14"/>
@@ -37074,7 +37083,7 @@
       <c r="BX632" s="14"/>
       <c r="BY632" s="14"/>
     </row>
-    <row r="633" spans="8:77" s="2" customFormat="1">
+    <row r="633" spans="8:77" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="H633" s="14"/>
       <c r="I633" s="14"/>
       <c r="J633" s="14"/>
@@ -37146,7 +37155,7 @@
       <c r="BX633" s="14"/>
       <c r="BY633" s="14"/>
     </row>
-    <row r="634" spans="8:77" s="4" customFormat="1" ht="14.25">
+    <row r="634" spans="8:77" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="H634" s="17"/>
       <c r="I634" s="17"/>
       <c r="J634" s="17"/>
@@ -37218,7 +37227,7 @@
       <c r="BX634" s="17"/>
       <c r="BY634" s="17"/>
     </row>
-    <row r="635" spans="8:77" s="4" customFormat="1" ht="14.25">
+    <row r="635" spans="8:77" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="H635" s="17"/>
       <c r="I635" s="17"/>
       <c r="J635" s="17"/>
@@ -37290,7 +37299,7 @@
       <c r="BX635" s="17"/>
       <c r="BY635" s="17"/>
     </row>
-    <row r="636" spans="8:77" s="4" customFormat="1" ht="14.25">
+    <row r="636" spans="8:77" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="H636" s="17"/>
       <c r="I636" s="17"/>
       <c r="J636" s="17"/>
@@ -37362,7 +37371,7 @@
       <c r="BX636" s="17"/>
       <c r="BY636" s="17"/>
     </row>
-    <row r="637" spans="8:77" s="4" customFormat="1" ht="14.25">
+    <row r="637" spans="8:77" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="H637" s="17"/>
       <c r="I637" s="17"/>
       <c r="J637" s="17"/>
@@ -37434,7 +37443,7 @@
       <c r="BX637" s="17"/>
       <c r="BY637" s="17"/>
     </row>
-    <row r="638" spans="8:77" s="4" customFormat="1" ht="14.25">
+    <row r="638" spans="8:77" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="H638" s="17"/>
       <c r="I638" s="17"/>
       <c r="J638" s="17"/>
@@ -37506,7 +37515,7 @@
       <c r="BX638" s="17"/>
       <c r="BY638" s="17"/>
     </row>
-    <row r="639" spans="8:77" s="4" customFormat="1" ht="14.25">
+    <row r="639" spans="8:77" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="H639" s="17"/>
       <c r="I639" s="17"/>
       <c r="J639" s="17"/>
@@ -37578,7 +37587,7 @@
       <c r="BX639" s="17"/>
       <c r="BY639" s="17"/>
     </row>
-    <row r="640" spans="8:77" s="4" customFormat="1" ht="14.25">
+    <row r="640" spans="8:77" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="H640" s="17"/>
       <c r="I640" s="17"/>
       <c r="J640" s="17"/>
@@ -37650,7 +37659,7 @@
       <c r="BX640" s="17"/>
       <c r="BY640" s="17"/>
     </row>
-    <row r="641" spans="8:77" s="4" customFormat="1" ht="14.25">
+    <row r="641" spans="8:77" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="H641" s="17"/>
       <c r="I641" s="17"/>
       <c r="J641" s="17"/>
@@ -37722,7 +37731,7 @@
       <c r="BX641" s="17"/>
       <c r="BY641" s="17"/>
     </row>
-    <row r="642" spans="8:77" s="4" customFormat="1" ht="14.25">
+    <row r="642" spans="8:77" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="H642" s="17"/>
       <c r="I642" s="17"/>
       <c r="J642" s="17"/>
@@ -37794,7 +37803,7 @@
       <c r="BX642" s="17"/>
       <c r="BY642" s="17"/>
     </row>
-    <row r="643" spans="8:77" s="4" customFormat="1" ht="14.25">
+    <row r="643" spans="8:77" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="H643" s="17"/>
       <c r="I643" s="17"/>
       <c r="J643" s="17"/>
@@ -37866,7 +37875,7 @@
       <c r="BX643" s="17"/>
       <c r="BY643" s="17"/>
     </row>
-    <row r="644" spans="8:77" s="4" customFormat="1" ht="14.25">
+    <row r="644" spans="8:77" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="H644" s="17"/>
       <c r="I644" s="17"/>
       <c r="J644" s="17"/>
@@ -37938,7 +37947,7 @@
       <c r="BX644" s="17"/>
       <c r="BY644" s="17"/>
     </row>
-    <row r="645" spans="8:77" s="4" customFormat="1" ht="14.25">
+    <row r="645" spans="8:77" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="H645" s="17"/>
       <c r="I645" s="17"/>
       <c r="J645" s="17"/>
@@ -38010,7 +38019,7 @@
       <c r="BX645" s="17"/>
       <c r="BY645" s="17"/>
     </row>
-    <row r="646" spans="8:77" s="4" customFormat="1" ht="14.25">
+    <row r="646" spans="8:77" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="H646" s="17"/>
       <c r="I646" s="17"/>
       <c r="J646" s="17"/>
@@ -38082,7 +38091,7 @@
       <c r="BX646" s="17"/>
       <c r="BY646" s="17"/>
     </row>
-    <row r="647" spans="8:77" s="4" customFormat="1" ht="14.25">
+    <row r="647" spans="8:77" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="H647" s="17"/>
       <c r="I647" s="17"/>
       <c r="J647" s="17"/>
@@ -38154,7 +38163,7 @@
       <c r="BX647" s="17"/>
       <c r="BY647" s="17"/>
     </row>
-    <row r="648" spans="8:77" s="4" customFormat="1" ht="14.25">
+    <row r="648" spans="8:77" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="H648" s="17"/>
       <c r="I648" s="17"/>
       <c r="J648" s="17"/>
@@ -38227,7 +38236,7 @@
       <c r="BY648" s="17"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E495">
+  <autoFilter ref="A1:E495" xr:uid="{00000000-0009-0000-0000-000000000000}">
     <filterColumn colId="2">
       <customFilters>
         <customFilter operator="notEqual" val="*a*"/>
